--- a/run/overrides.xlsx
+++ b/run/overrides.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="237">
   <si>
     <t xml:space="preserve">databaseId</t>
   </si>
@@ -686,6 +686,51 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;p&gt;&lt;b&gt;If the investigators possess fewer than 3 &lt;span class="icon-per_investigator" title="Per Investigator"&gt;&lt;/span&gt; clues:&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;blockquote&gt;&lt;i&gt;Try as you might, you cannot find the way to the other side of this ocean of tar.&lt;/i&gt;&lt;/blockquote&gt;&lt;/p&gt;&lt;p&gt;Flip this card back over. Come back when you have a greater understanding of this region. This card may be flipped over again when you are ready.&lt;hr&gt;&lt;b&gt;If the investigators possess at least 3 &lt;span class="icon-per_investigator" title="Per Investigator"&gt;&lt;/span&gt; clues:&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;blockquote&gt;&lt;i&gt;You row farther out, into deeper, darker waters, but there is still no sign of any other shore. Under the surface of the black, tarry liquid, you can see a series of glittering stars, like an unknown constellation beckoning you forward. If you didn't know any better, you would think it was a reflection of the sky above, but there is no sky in this dark realm. You lean over the edge of your boat and nearly vomit from the sensation of vertigo that assaults you. It must be hundreds of miles deep, and filled with horrors beyond your imagining. And yet, you know what you must do...&lt;/i&gt;&lt;/blockquote&gt;&lt;/p&gt;&lt;p&gt;The investigators must spend 3 &lt;span class="icon-per_investigator" title="Per Investigator"&gt;&lt;/span&gt; clues, as a group.&lt;/p&gt;&lt;p&gt;Flip this card back over and advance the current act.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlach-Nacha: The Spider God</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/06/06346a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weaver of the Cosmos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">woc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ancient One. Spider. Elite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massive.  &lt;b&gt;Forced&lt;/b&gt; - When Atlach-Nacha leaves a location: If there are no investigators at that location, place 1 doom there. Otherwise, it attacks each investigator at that location.  &lt;b&gt;Forced&lt;/b&gt; - After you evade Atlach-Nacha: Instead of exhausting it, choose an investigator at your location. It cannot attack the chosen investigator this round.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlach-Nacha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/06/06346b.webp</t>
   </si>
 </sst>
 </file>
@@ -696,7 +741,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -717,6 +762,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -761,12 +811,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -792,29 +846,29 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="5.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="4.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="3.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="5.04"/>
@@ -842,7 +896,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="4.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="245.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="295.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3203,6 +3257,169 @@
       </c>
       <c r="AT31" s="0" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="R32" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="S32" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF32" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG32" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AH32" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AM32" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AP32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT32" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S33" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS33" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/run/overrides.xlsx
+++ b/run/overrides.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="243">
   <si>
     <t xml:space="preserve">databaseId</t>
   </si>
@@ -731,6 +731,24 @@
   </si>
   <si>
     <t xml:space="preserve">card_images/06/06346b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triumph and Subjugation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/90/90023b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad Blood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Agnes Baker must decide (choose one):&lt;/p&gt;&lt;p&gt;- Agnes Baker collects 1 memory from Elspeth Baudin.&lt;/p&gt;&lt;p&gt;- Agnes Baker gains 2 &lt;span class="icon-per_investigator" title="Per Investigator"&gt;&lt;/span&gt; clues from the token bank.&lt;/p&gt;&lt;p&gt;Then, flip this card over, exhausted and unengaged.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -741,7 +759,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -762,11 +780,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -820,7 +833,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -846,10 +859,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.03"/>
@@ -874,16 +887,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="12.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="9.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="8.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="11.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="6.01"/>
@@ -892,7 +905,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="4.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="10.6"/>
@@ -3420,6 +3433,80 @@
       </c>
       <c r="AS33" s="1" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="S34" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT34" s="0" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/run/overrides.xlsx
+++ b/run/overrides.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="arkhamhorrorlcg" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="arkhamhorrorlcg" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="266">
   <si>
     <t xml:space="preserve">databaseId</t>
   </si>
@@ -731,6 +731,75 @@
   </si>
   <si>
     <t xml:space="preserve">card_images/06/06346b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87005a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tindalos: Realm of Angular Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/87/87005aa.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machinations Through Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mtt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Past. Present. Future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tindalos is connected to each [[Portal]] location, and vice versa.  [fast] If it is your turn: Move to a [[Portal]] location.  [action]: Test [combat] (2) or [agility] (2). If you succeed, rescue an abducted [[Scientist]] asset and put it into play at Tindalos, exhausted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tindalos: Maze of Infinite Depths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/87/87005ab.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epic Multiplayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tindalos is connected to each [[Portal]] location, and vice versa.  [fast]: Place 1 of your clues on Tindalos, or take control of 1 clue on a Tindalos location in any era.  [action]: Test [combat] (3) or [agility] (3). If you succeed, rescue an abducted [[Scientist]] asset and put it into play at Tindalos, exhausted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reality Acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/89/89005a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Blob That Ate Everything ELSE!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neutral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Subject 5U-21 Devours...&lt;/b&gt;  &lt;i&gt;(If the chaos token revealed is not listed, or if the listed aspect cannot be devoured, reveal a new chaos token and consult the list again.)&lt;/i&gt;  - [elder_sign]: ...a non-[[Elite]] enemy or treachery, at your location and worth no victory points.  - &lt;b&gt;+1&lt;/b&gt;: ...the top card of each investigator's discard pile.  - &lt;b&gt;0&lt;/b&gt;: ...the top card of each investigator's deck.  - &lt;b&gt;-1&lt;/b&gt;: ...1 card at random from your hand.  - &lt;b&gt;-2&lt;/b&gt;: ...a non-story, non-weakness asset controlled by an investigator at your location.  - &lt;b&gt;-3&lt;/b&gt;: ...a player card attached to your location, or attached to an encounter card at your location.  - &lt;b&gt;-4&lt;/b&gt;: ...the top 2 cards of each investigator's deck.  - &lt;b&gt;-5&lt;/b&gt;: ...-3 cards of your choice from your hand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/89/89005b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- &lt;b&gt;-6&lt;/b&gt;: ...all events from each investigator's hand.  - &lt;b&gt;-7&lt;/b&gt;: ...a non-story, non-weakness asset from each investigator's play area.  - &lt;b&gt;-8&lt;/b&gt;: ...a non-weakness siganture card in any player's deck, hand, discard pile, or play area.  - [skull]: ...1 card beneath Ravenous, at random.  - [cultist]: ...each card committed to each skill test at your location &lt;i&gt;(after the test ends)&lt;/i&gt;, until the end of the next investigation phase.  - [tablet]: ...each event played by investigators at your location, until the end of the next investigation phase.  - [elder_thing]: ...the player card at your location with the most evidence, supplies, ammo, charges, or secrets on it.  - [auto_fail]: Reveal 3 more chaos tokens and resolve each of those devour effects.</t>
   </si>
   <si>
     <t xml:space="preserve">90023</t>
@@ -824,16 +893,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -849,5301 +930,5737 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AT1000"/>
+  <dimension ref="A1:AT1004"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="22.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="4.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="3.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="5.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="8.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="11.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="10.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="10.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="4.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="295.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="8.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="22.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="4.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="9.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="5.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="6.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="10.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="10.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="6.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="4.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="295.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="0" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="0" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="0" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="0" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="0" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="0" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="0" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="0" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="0" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="0" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="0" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="H2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="0" t="s">
+      <c r="M2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="S2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT2" s="0" t="s">
+      <c r="AB2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT2" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="H3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="0" t="s">
+      <c r="M3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="S3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT3" s="0" t="s">
+      <c r="AB3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT3" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="H4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="0" t="s">
+      <c r="M4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="S4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT4" s="0" t="s">
+      <c r="AB4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT4" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="0" t="s">
+      <c r="H5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" s="0" t="s">
+      <c r="M5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="S5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT5" s="0" t="s">
+      <c r="AB5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT5" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="0" t="s">
+      <c r="H6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="0" t="s">
+      <c r="M6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="S6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT6" s="0" t="s">
+      <c r="AB6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT6" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="0" t="s">
+      <c r="H7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" s="0" t="s">
+      <c r="M7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S7" s="0" t="s">
+      <c r="S7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT7" s="0" t="s">
+      <c r="AB7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT7" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="0" t="s">
+      <c r="H8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="0" t="s">
+      <c r="M8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S8" s="0" t="s">
+      <c r="S8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT8" s="0" t="s">
+      <c r="AB8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT8" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="0" t="s">
+      <c r="H9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q9" s="0" t="s">
+      <c r="M9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S9" s="0" t="s">
+      <c r="S9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT9" s="0" t="s">
+      <c r="AB9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT9" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="0" t="s">
+      <c r="H10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q10" s="0" t="s">
+      <c r="M10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S10" s="0" t="s">
+      <c r="S10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT10" s="0" t="s">
+      <c r="AB10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT10" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="0" t="s">
+      <c r="H11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="0" t="s">
+      <c r="M11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S11" s="0" t="s">
+      <c r="S11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT11" s="0" t="s">
+      <c r="AB11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT11" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="0" t="s">
+      <c r="H12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K12" s="0" t="s">
+      <c r="K12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q12" s="0" t="s">
+      <c r="M12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S12" s="0" t="s">
+      <c r="S12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT12" s="0" t="s">
+      <c r="AB12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT12" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="0" t="s">
+      <c r="H13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="K13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q13" s="0" t="s">
+      <c r="M13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S13" s="0" t="s">
+      <c r="S13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT13" s="0" t="s">
+      <c r="AB13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT13" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="0" t="s">
+      <c r="H14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="K14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q14" s="0" t="s">
+      <c r="M14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S14" s="0" t="s">
+      <c r="S14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT14" s="0" t="s">
+      <c r="AB14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT14" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I15" s="0" t="s">
+      <c r="H15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K15" s="0" t="s">
+      <c r="K15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q15" s="0" t="s">
+      <c r="M15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S15" s="0" t="s">
+      <c r="S15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT15" s="0" t="s">
+      <c r="AB15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT15" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="0" t="s">
+      <c r="H16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K16" s="0" t="s">
+      <c r="K16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q16" s="0" t="s">
+      <c r="M16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S16" s="0" t="s">
+      <c r="S16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT16" s="0" t="s">
+      <c r="AB16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT16" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="0" t="s">
+      <c r="H17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="K17" s="0" t="s">
+      <c r="K17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q17" s="0" t="s">
+      <c r="M17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S17" s="0" t="s">
+      <c r="S17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT17" s="0" t="s">
+      <c r="AB17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT17" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="0" t="s">
+      <c r="H18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K18" s="0" t="s">
+      <c r="K18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q18" s="0" t="s">
+      <c r="M18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S18" s="0" t="s">
+      <c r="S18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT18" s="0" t="s">
+      <c r="AB18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT18" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" s="0" t="s">
+      <c r="H19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="K19" s="0" t="s">
+      <c r="K19" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q19" s="0" t="s">
+      <c r="M19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S19" s="0" t="s">
+      <c r="S19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT19" s="0" t="s">
+      <c r="AB19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT19" s="1" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="0" t="s">
+      <c r="H20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="K20" s="0" t="s">
+      <c r="K20" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q20" s="0" t="s">
+      <c r="M20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S20" s="0" t="s">
+      <c r="S20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT20" s="0" t="s">
+      <c r="AB20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT20" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="0" t="s">
+      <c r="H21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="K21" s="0" t="s">
+      <c r="K21" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q21" s="0" t="s">
+      <c r="M21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S21" s="0" t="s">
+      <c r="S21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT21" s="0" t="s">
+      <c r="AB21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT21" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="0" t="s">
+      <c r="H22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="K22" s="0" t="s">
+      <c r="K22" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q22" s="0" t="s">
+      <c r="M22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S22" s="0" t="s">
+      <c r="S22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT22" s="0" t="s">
+      <c r="AB22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT22" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="0" t="s">
+      <c r="H23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K23" s="0" t="s">
+      <c r="K23" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q23" s="0" t="s">
+      <c r="M23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S23" s="0" t="s">
+      <c r="S23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT23" s="0" t="s">
+      <c r="AB23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT23" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="0" t="s">
+      <c r="H24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="K24" s="0" t="s">
+      <c r="K24" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q24" s="0" t="s">
+      <c r="M24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S24" s="0" t="s">
+      <c r="S24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT24" s="0" t="s">
+      <c r="AB24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT24" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="0" t="s">
+      <c r="H25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="K25" s="0" t="s">
+      <c r="K25" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q25" s="0" t="s">
+      <c r="M25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S25" s="0" t="s">
+      <c r="S25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT25" s="0" t="s">
+      <c r="AB25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT25" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="0" t="s">
+      <c r="H26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="0" t="s">
+      <c r="K26" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q26" s="0" t="s">
+      <c r="M26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S26" s="0" t="s">
+      <c r="S26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT26" s="0" t="s">
+      <c r="AB26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT26" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="0" t="s">
+      <c r="H27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K27" s="0" t="s">
+      <c r="K27" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="0" t="s">
+      <c r="M27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S27" s="0" t="s">
+      <c r="S27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT27" s="0" t="s">
+      <c r="AB27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT27" s="1" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" s="0" t="s">
+      <c r="H28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="K28" s="0" t="s">
+      <c r="K28" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q28" s="0" t="s">
+      <c r="M28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S28" s="0" t="s">
+      <c r="S28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT28" s="0" t="s">
+      <c r="AB28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT28" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="0" t="s">
+      <c r="H29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="K29" s="0" t="s">
+      <c r="K29" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q29" s="0" t="s">
+      <c r="M29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S29" s="0" t="s">
+      <c r="S29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS29" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT29" s="0" t="s">
+      <c r="AB29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT29" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" s="0" t="s">
+      <c r="H30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="K30" s="0" t="s">
+      <c r="K30" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q30" s="0" t="s">
+      <c r="M30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S30" s="0" t="s">
+      <c r="S30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT30" s="0" t="s">
+      <c r="AB30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT30" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I31" s="0" t="s">
+      <c r="H31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="K31" s="0" t="s">
+      <c r="K31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q31" s="0" t="s">
+      <c r="M31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S31" s="0" t="s">
+      <c r="S31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT31" s="0" t="s">
+      <c r="AB31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT31" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I32" s="0" t="s">
+      <c r="H32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K32" s="0" t="s">
+      <c r="K32" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L32" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M32" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q32" s="0" t="s">
+      <c r="N32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q32" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R32" s="0" t="s">
+      <c r="R32" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="S32" s="0" t="s">
+      <c r="S32" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="AA32" s="1" t="s">
+      <c r="AA32" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="AB32" s="1" t="s">
+      <c r="AB32" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="AE32" s="1" t="s">
+      <c r="AE32" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AF32" s="1" t="s">
+      <c r="AF32" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AG32" s="1" t="s">
+      <c r="AG32" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="AH32" s="1" t="s">
+      <c r="AH32" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="AM32" s="1" t="s">
+      <c r="AM32" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="AP32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT32" s="0" t="s">
+      <c r="AP32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT32" s="1" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="0" t="s">
+      <c r="H33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K33" s="0" t="s">
+      <c r="K33" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q33" s="0" t="s">
+      <c r="N33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S33" s="0" t="s">
+      <c r="S33" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS33" s="1" t="s">
+      <c r="AB33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS33" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
+      <c r="AH34" s="4"/>
+      <c r="AI34" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ34" s="4"/>
+      <c r="AK34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL34" s="4"/>
+      <c r="AM34" s="4"/>
+      <c r="AN34" s="4"/>
+      <c r="AO34" s="4"/>
+      <c r="AP34" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR34" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AS34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT34" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
+      <c r="AH35" s="4"/>
+      <c r="AI35" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ35" s="4"/>
+      <c r="AK35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL35" s="4"/>
+      <c r="AM35" s="4"/>
+      <c r="AN35" s="4"/>
+      <c r="AO35" s="4"/>
+      <c r="AP35" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR35" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AS35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT35" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G34" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="G36" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS36" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT36" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT37" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K34" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="L34" s="1" t="s">
+      <c r="K38" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q34" s="0" t="s">
+      <c r="M38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S34" s="0" t="s">
+      <c r="S38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT34" s="0" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1"/>
+      <c r="AB38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS38" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT38" s="1" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1"/>
+      <c r="A43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1"/>
+      <c r="A44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1"/>
+      <c r="A45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1"/>
+      <c r="A46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1"/>
+      <c r="A47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1"/>
+      <c r="A48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1"/>
+      <c r="A49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1"/>
+      <c r="A50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1"/>
+      <c r="A51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1"/>
+      <c r="A52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1"/>
+      <c r="A53" s="2"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1"/>
+      <c r="A54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1"/>
+      <c r="A55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1"/>
+      <c r="A56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1"/>
+      <c r="A57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1"/>
+      <c r="A58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1"/>
+      <c r="A59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1"/>
+      <c r="A60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1"/>
+      <c r="A61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1"/>
+      <c r="A62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1"/>
+      <c r="A63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1"/>
+      <c r="A64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1"/>
+      <c r="A65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1"/>
+      <c r="A66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1"/>
+      <c r="A67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1"/>
+      <c r="A68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1"/>
+      <c r="A69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1"/>
+      <c r="A70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1"/>
+      <c r="A71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1"/>
+      <c r="A72" s="2"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1"/>
+      <c r="A73" s="2"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1"/>
+      <c r="A74" s="2"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1"/>
+      <c r="A75" s="2"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1"/>
+      <c r="A76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1"/>
+      <c r="A77" s="2"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1"/>
+      <c r="A78" s="2"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1"/>
+      <c r="A79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1"/>
+      <c r="A80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1"/>
+      <c r="A81" s="2"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1"/>
+      <c r="A82" s="2"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1"/>
+      <c r="A83" s="2"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1"/>
+      <c r="A84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1"/>
+      <c r="A85" s="2"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1"/>
+      <c r="A86" s="2"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1"/>
+      <c r="A87" s="2"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1"/>
+      <c r="A88" s="2"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1"/>
+      <c r="A89" s="2"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1"/>
+      <c r="A90" s="2"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1"/>
+      <c r="A91" s="2"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1"/>
+      <c r="A92" s="2"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1"/>
+      <c r="A93" s="2"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1"/>
+      <c r="A94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1"/>
+      <c r="A95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1"/>
+      <c r="A96" s="2"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1"/>
+      <c r="A97" s="2"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1"/>
+      <c r="A98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1"/>
+      <c r="A99" s="2"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1"/>
+      <c r="A100" s="2"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1"/>
+      <c r="A101" s="2"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1"/>
+      <c r="A102" s="2"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1"/>
+      <c r="A103" s="2"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1"/>
+      <c r="A104" s="2"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1"/>
+      <c r="A105" s="2"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1"/>
+      <c r="A106" s="2"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1"/>
+      <c r="A107" s="2"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1"/>
+      <c r="A108" s="2"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1"/>
+      <c r="A109" s="2"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1"/>
+      <c r="A110" s="2"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1"/>
+      <c r="A111" s="2"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1"/>
+      <c r="A112" s="2"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1"/>
+      <c r="A113" s="2"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1"/>
+      <c r="A114" s="2"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1"/>
+      <c r="A115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1"/>
+      <c r="A116" s="2"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1"/>
+      <c r="A117" s="2"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1"/>
+      <c r="A118" s="2"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1"/>
+      <c r="A119" s="2"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1"/>
+      <c r="A120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1"/>
+      <c r="A121" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1"/>
+      <c r="A122" s="2"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1"/>
+      <c r="A123" s="2"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1"/>
+      <c r="A124" s="2"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1"/>
+      <c r="A125" s="2"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1"/>
+      <c r="A126" s="2"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1"/>
+      <c r="A127" s="2"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1"/>
+      <c r="A128" s="2"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1"/>
+      <c r="A129" s="2"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1"/>
+      <c r="A130" s="2"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1"/>
+      <c r="A131" s="2"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1"/>
+      <c r="A132" s="2"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1"/>
+      <c r="A133" s="2"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1"/>
+      <c r="A134" s="2"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1"/>
+      <c r="A135" s="2"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1"/>
+      <c r="A136" s="2"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1"/>
+      <c r="A137" s="2"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1"/>
+      <c r="A138" s="2"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1"/>
+      <c r="A139" s="2"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1"/>
+      <c r="A140" s="2"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1"/>
+      <c r="A141" s="2"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1"/>
+      <c r="A142" s="2"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1"/>
+      <c r="A143" s="2"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1"/>
+      <c r="A144" s="2"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1"/>
+      <c r="A145" s="2"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1"/>
+      <c r="A146" s="2"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1"/>
+      <c r="A147" s="2"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1"/>
+      <c r="A148" s="2"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1"/>
+      <c r="A149" s="2"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1"/>
+      <c r="A150" s="2"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1"/>
+      <c r="A151" s="2"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1"/>
+      <c r="A152" s="2"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1"/>
+      <c r="A153" s="2"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1"/>
+      <c r="A154" s="2"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1"/>
+      <c r="A155" s="2"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1"/>
+      <c r="A156" s="2"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1"/>
+      <c r="A157" s="2"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1"/>
+      <c r="A158" s="2"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1"/>
+      <c r="A159" s="2"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1"/>
+      <c r="A160" s="2"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1"/>
+      <c r="A161" s="2"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1"/>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1"/>
+      <c r="A162" s="2"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="2"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1"/>
+      <c r="A179" s="2"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1"/>
+      <c r="A180" s="2"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1"/>
+      <c r="A181" s="2"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1"/>
+      <c r="A182" s="2"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1"/>
+      <c r="A183" s="2"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1"/>
+      <c r="A184" s="2"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1"/>
+      <c r="A185" s="2"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1"/>
+      <c r="A186" s="2"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1"/>
+      <c r="A187" s="2"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1"/>
+      <c r="A188" s="2"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1"/>
+      <c r="A189" s="2"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1"/>
+      <c r="A190" s="2"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1"/>
+      <c r="A191" s="2"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1"/>
+      <c r="A192" s="2"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1"/>
+      <c r="A193" s="2"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1"/>
+      <c r="A194" s="2"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1"/>
+      <c r="A195" s="2"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1"/>
+      <c r="A196" s="2"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1"/>
+      <c r="A197" s="2"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1"/>
+      <c r="A198" s="2"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1"/>
+      <c r="A199" s="2"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1"/>
+      <c r="A200" s="2"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1"/>
+      <c r="A201" s="2"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1"/>
+      <c r="A202" s="2"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1"/>
+      <c r="A203" s="2"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1"/>
+      <c r="A204" s="2"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1"/>
+      <c r="A205" s="2"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1"/>
+      <c r="A206" s="2"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1"/>
+      <c r="A207" s="2"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1"/>
+      <c r="A208" s="2"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1"/>
+      <c r="A209" s="2"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1"/>
+      <c r="A210" s="2"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1"/>
+      <c r="A211" s="2"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1"/>
+      <c r="A212" s="2"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1"/>
+      <c r="A213" s="2"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="1"/>
+      <c r="A214" s="2"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1"/>
+      <c r="A215" s="2"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1"/>
+      <c r="A216" s="2"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1"/>
+      <c r="A217" s="2"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1"/>
+      <c r="A218" s="2"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1"/>
+      <c r="A219" s="2"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1"/>
+      <c r="A220" s="2"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1"/>
+      <c r="A221" s="2"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="1"/>
+      <c r="A222" s="2"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="1"/>
+      <c r="A223" s="2"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="1"/>
+      <c r="A224" s="2"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="1"/>
+      <c r="A225" s="2"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="1"/>
+      <c r="A226" s="2"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="1"/>
+      <c r="A227" s="2"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1"/>
+      <c r="A228" s="2"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1"/>
+      <c r="A229" s="2"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1"/>
+      <c r="A230" s="2"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1"/>
+      <c r="A231" s="2"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="1"/>
+      <c r="A232" s="2"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1"/>
+      <c r="A233" s="2"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1"/>
+      <c r="A234" s="2"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1"/>
+      <c r="A235" s="2"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1"/>
+      <c r="A236" s="2"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="1"/>
+      <c r="A237" s="2"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="1"/>
+      <c r="A238" s="2"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="1"/>
+      <c r="A239" s="2"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1"/>
+      <c r="A240" s="2"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1"/>
+      <c r="A241" s="2"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="1"/>
+      <c r="A242" s="2"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1"/>
+      <c r="A243" s="2"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="1"/>
+      <c r="A244" s="2"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="1"/>
+      <c r="A245" s="2"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="1"/>
+      <c r="A246" s="2"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="1"/>
+      <c r="A247" s="2"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="1"/>
+      <c r="A248" s="2"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="1"/>
+      <c r="A249" s="2"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="1"/>
+      <c r="A250" s="2"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="1"/>
+      <c r="A251" s="2"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="1"/>
+      <c r="A252" s="2"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="1"/>
+      <c r="A253" s="2"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="1"/>
+      <c r="A254" s="2"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="1"/>
+      <c r="A255" s="2"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="1"/>
+      <c r="A256" s="2"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="1"/>
+      <c r="A257" s="2"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="1"/>
+      <c r="A258" s="2"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="1"/>
+      <c r="A259" s="2"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="1"/>
+      <c r="A260" s="2"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="1"/>
+      <c r="A261" s="2"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="1"/>
+      <c r="A262" s="2"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="1"/>
+      <c r="A263" s="2"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="1"/>
+      <c r="A264" s="2"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="1"/>
+      <c r="A265" s="2"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="1"/>
+      <c r="A266" s="2"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="1"/>
+      <c r="A267" s="2"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="1"/>
+      <c r="A268" s="2"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="1"/>
+      <c r="A269" s="2"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="1"/>
+      <c r="A270" s="2"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="1"/>
+      <c r="A271" s="2"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="1"/>
+      <c r="A272" s="2"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="1"/>
+      <c r="A273" s="2"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="1"/>
+      <c r="A274" s="2"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="1"/>
+      <c r="A275" s="2"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1"/>
+      <c r="A276" s="2"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="1"/>
+      <c r="A277" s="2"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="1"/>
+      <c r="A278" s="2"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="1"/>
+      <c r="A279" s="2"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="1"/>
+      <c r="A280" s="2"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="1"/>
+      <c r="A281" s="2"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="1"/>
+      <c r="A282" s="2"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="1"/>
+      <c r="A283" s="2"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="1"/>
+      <c r="A284" s="2"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="1"/>
+      <c r="A285" s="2"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="1"/>
+      <c r="A286" s="2"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="1"/>
+      <c r="A287" s="2"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="1"/>
+      <c r="A288" s="2"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="1"/>
+      <c r="A289" s="2"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="1"/>
+      <c r="A290" s="2"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="1"/>
+      <c r="A291" s="2"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="1"/>
+      <c r="A292" s="2"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="1"/>
+      <c r="A293" s="2"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="1"/>
+      <c r="A294" s="2"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="1"/>
+      <c r="A295" s="2"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="1"/>
+      <c r="A296" s="2"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="1"/>
+      <c r="A297" s="2"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="1"/>
+      <c r="A298" s="2"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="1"/>
+      <c r="A299" s="2"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="1"/>
+      <c r="A300" s="2"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="1"/>
+      <c r="A301" s="2"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="1"/>
+      <c r="A302" s="2"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="1"/>
+      <c r="A303" s="2"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="1"/>
+      <c r="A304" s="2"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="1"/>
+      <c r="A305" s="2"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="1"/>
+      <c r="A306" s="2"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="1"/>
-      <c r="J307" s="1"/>
+      <c r="A307" s="2"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="1"/>
-      <c r="J308" s="1"/>
+      <c r="A308" s="2"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="1"/>
-      <c r="J309" s="1"/>
+      <c r="A309" s="2"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="1"/>
-      <c r="J310" s="1"/>
+      <c r="A310" s="2"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="1"/>
-      <c r="J311" s="1"/>
+      <c r="A311" s="2"/>
+      <c r="J311" s="2"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="1"/>
-      <c r="J312" s="1"/>
+      <c r="A312" s="2"/>
+      <c r="J312" s="2"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="1"/>
-      <c r="J313" s="1"/>
+      <c r="A313" s="2"/>
+      <c r="J313" s="2"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="1"/>
-      <c r="J314" s="1"/>
+      <c r="A314" s="2"/>
+      <c r="J314" s="2"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="1"/>
-      <c r="J315" s="1"/>
+      <c r="A315" s="2"/>
+      <c r="J315" s="2"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="1"/>
-      <c r="J316" s="1"/>
+      <c r="A316" s="2"/>
+      <c r="J316" s="2"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="1"/>
-      <c r="J317" s="1"/>
+      <c r="A317" s="2"/>
+      <c r="J317" s="2"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="1"/>
-      <c r="J318" s="1"/>
+      <c r="A318" s="2"/>
+      <c r="J318" s="2"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="1"/>
-      <c r="J319" s="1"/>
+      <c r="A319" s="2"/>
+      <c r="J319" s="2"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="1"/>
-      <c r="J320" s="1"/>
+      <c r="A320" s="2"/>
+      <c r="J320" s="2"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="1"/>
-      <c r="J321" s="1"/>
+      <c r="A321" s="2"/>
+      <c r="J321" s="2"/>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="1"/>
-      <c r="J322" s="1"/>
+      <c r="A322" s="2"/>
+      <c r="J322" s="2"/>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="1"/>
-      <c r="J323" s="1"/>
+      <c r="A323" s="2"/>
+      <c r="J323" s="2"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="1"/>
-      <c r="J324" s="1"/>
+      <c r="A324" s="2"/>
+      <c r="J324" s="2"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="1"/>
-      <c r="J325" s="1"/>
+      <c r="A325" s="2"/>
+      <c r="J325" s="2"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="1"/>
-      <c r="J326" s="1"/>
+      <c r="A326" s="2"/>
+      <c r="J326" s="2"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="1"/>
-      <c r="J327" s="1"/>
+      <c r="A327" s="2"/>
+      <c r="J327" s="2"/>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="1"/>
-      <c r="J328" s="1"/>
+      <c r="A328" s="2"/>
+      <c r="J328" s="2"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="1"/>
-      <c r="J329" s="1"/>
+      <c r="A329" s="2"/>
+      <c r="J329" s="2"/>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="1"/>
-      <c r="J330" s="1"/>
+      <c r="A330" s="2"/>
+      <c r="J330" s="2"/>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="1"/>
-      <c r="J331" s="1"/>
+      <c r="A331" s="2"/>
+      <c r="J331" s="2"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="1"/>
-      <c r="J332" s="1"/>
+      <c r="A332" s="2"/>
+      <c r="J332" s="2"/>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="1"/>
-      <c r="J333" s="1"/>
+      <c r="A333" s="2"/>
+      <c r="J333" s="2"/>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="1"/>
-      <c r="J334" s="1"/>
+      <c r="A334" s="2"/>
+      <c r="J334" s="2"/>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="1"/>
-      <c r="J335" s="1"/>
+      <c r="A335" s="2"/>
+      <c r="J335" s="2"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="1"/>
-      <c r="J336" s="1"/>
+      <c r="A336" s="2"/>
+      <c r="J336" s="2"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="1"/>
-      <c r="J337" s="1"/>
+      <c r="A337" s="2"/>
+      <c r="J337" s="2"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="1"/>
-      <c r="J338" s="1"/>
+      <c r="A338" s="2"/>
+      <c r="J338" s="2"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="1"/>
-      <c r="J339" s="1"/>
+      <c r="A339" s="2"/>
+      <c r="J339" s="2"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="1"/>
-      <c r="J340" s="1"/>
+      <c r="A340" s="2"/>
+      <c r="J340" s="2"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="1"/>
-      <c r="J341" s="1"/>
+      <c r="A341" s="2"/>
+      <c r="J341" s="2"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="1"/>
-      <c r="J342" s="1"/>
+      <c r="A342" s="2"/>
+      <c r="J342" s="2"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="1"/>
-      <c r="J343" s="1"/>
+      <c r="A343" s="2"/>
+      <c r="J343" s="2"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="1"/>
-      <c r="J344" s="1"/>
+      <c r="A344" s="2"/>
+      <c r="J344" s="2"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="1"/>
-      <c r="J345" s="1"/>
+      <c r="A345" s="2"/>
+      <c r="J345" s="2"/>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="1"/>
-      <c r="J346" s="1"/>
+      <c r="A346" s="2"/>
+      <c r="J346" s="2"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="1"/>
-      <c r="J347" s="1"/>
+      <c r="A347" s="2"/>
+      <c r="J347" s="2"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="1"/>
-      <c r="J348" s="1"/>
+      <c r="A348" s="2"/>
+      <c r="J348" s="2"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="1"/>
-      <c r="J349" s="1"/>
+      <c r="A349" s="2"/>
+      <c r="J349" s="2"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="1"/>
-      <c r="J350" s="1"/>
+      <c r="A350" s="2"/>
+      <c r="J350" s="2"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="1"/>
-      <c r="J351" s="1"/>
+      <c r="A351" s="2"/>
+      <c r="J351" s="2"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="1"/>
-      <c r="J352" s="1"/>
+      <c r="A352" s="2"/>
+      <c r="J352" s="2"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="1"/>
-      <c r="J353" s="1"/>
+      <c r="A353" s="2"/>
+      <c r="J353" s="2"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="1"/>
-      <c r="J354" s="1"/>
+      <c r="A354" s="2"/>
+      <c r="J354" s="2"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="1"/>
-      <c r="J355" s="1"/>
+      <c r="A355" s="2"/>
+      <c r="J355" s="2"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="1"/>
-      <c r="J356" s="1"/>
+      <c r="A356" s="2"/>
+      <c r="J356" s="2"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="1"/>
-      <c r="J357" s="1"/>
+      <c r="A357" s="2"/>
+      <c r="J357" s="2"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="1"/>
-      <c r="J358" s="1"/>
+      <c r="A358" s="2"/>
+      <c r="J358" s="2"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="1"/>
-      <c r="J359" s="1"/>
+      <c r="A359" s="2"/>
+      <c r="J359" s="2"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="1"/>
-      <c r="J360" s="1"/>
+      <c r="A360" s="2"/>
+      <c r="J360" s="2"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="1"/>
-      <c r="J361" s="1"/>
+      <c r="A361" s="2"/>
+      <c r="J361" s="2"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="1"/>
-      <c r="J362" s="1"/>
+      <c r="A362" s="2"/>
+      <c r="J362" s="2"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="1"/>
-      <c r="J363" s="1"/>
+      <c r="A363" s="2"/>
+      <c r="J363" s="2"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="1"/>
-      <c r="J364" s="1"/>
+      <c r="A364" s="2"/>
+      <c r="J364" s="2"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="1"/>
-      <c r="J365" s="1"/>
+      <c r="A365" s="2"/>
+      <c r="J365" s="2"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="1"/>
-      <c r="J366" s="1"/>
+      <c r="A366" s="2"/>
+      <c r="J366" s="2"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="1"/>
-      <c r="J367" s="1"/>
+      <c r="A367" s="2"/>
+      <c r="J367" s="2"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="1"/>
-      <c r="J368" s="1"/>
+      <c r="A368" s="2"/>
+      <c r="J368" s="2"/>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="1"/>
-      <c r="J369" s="1"/>
+      <c r="A369" s="2"/>
+      <c r="J369" s="2"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="1"/>
-      <c r="J370" s="1"/>
+      <c r="A370" s="2"/>
+      <c r="J370" s="2"/>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="1"/>
-      <c r="J371" s="1"/>
+      <c r="A371" s="2"/>
+      <c r="J371" s="2"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="1"/>
-      <c r="J372" s="1"/>
+      <c r="A372" s="2"/>
+      <c r="J372" s="2"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="1"/>
-      <c r="J373" s="1"/>
+      <c r="A373" s="2"/>
+      <c r="J373" s="2"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="1"/>
-      <c r="J374" s="1"/>
+      <c r="A374" s="2"/>
+      <c r="J374" s="2"/>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="1"/>
-      <c r="J375" s="1"/>
+      <c r="A375" s="2"/>
+      <c r="J375" s="2"/>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="1"/>
-      <c r="J376" s="1"/>
+      <c r="A376" s="2"/>
+      <c r="J376" s="2"/>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="1"/>
-      <c r="J377" s="1"/>
+      <c r="A377" s="2"/>
+      <c r="J377" s="2"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="1"/>
-      <c r="J378" s="1"/>
+      <c r="A378" s="2"/>
+      <c r="J378" s="2"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="1"/>
-      <c r="J379" s="1"/>
+      <c r="A379" s="2"/>
+      <c r="J379" s="2"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="1"/>
-      <c r="J380" s="1"/>
+      <c r="A380" s="2"/>
+      <c r="J380" s="2"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="1"/>
-      <c r="J381" s="1"/>
+      <c r="A381" s="2"/>
+      <c r="J381" s="2"/>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="1"/>
-      <c r="J382" s="1"/>
+      <c r="A382" s="2"/>
+      <c r="J382" s="2"/>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="1"/>
-      <c r="J383" s="1"/>
+      <c r="A383" s="2"/>
+      <c r="J383" s="2"/>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="1"/>
-      <c r="J384" s="1"/>
+      <c r="A384" s="2"/>
+      <c r="J384" s="2"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="1"/>
-      <c r="J385" s="1"/>
+      <c r="A385" s="2"/>
+      <c r="J385" s="2"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="1"/>
-      <c r="J386" s="1"/>
+      <c r="A386" s="2"/>
+      <c r="J386" s="2"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="1"/>
+      <c r="A387" s="2"/>
+      <c r="J387" s="2"/>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="1"/>
+      <c r="A388" s="2"/>
+      <c r="J388" s="2"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="1"/>
+      <c r="A389" s="2"/>
+      <c r="J389" s="2"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="1"/>
+      <c r="A390" s="2"/>
+      <c r="J390" s="2"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="1"/>
+      <c r="A391" s="2"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="1"/>
+      <c r="A392" s="2"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="1"/>
+      <c r="A393" s="2"/>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="1"/>
+      <c r="A394" s="2"/>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="1"/>
+      <c r="A395" s="2"/>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="1"/>
+      <c r="A396" s="2"/>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="1"/>
+      <c r="A397" s="2"/>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="1"/>
+      <c r="A398" s="2"/>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="1"/>
+      <c r="A399" s="2"/>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="1"/>
+      <c r="A400" s="2"/>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="1"/>
+      <c r="A401" s="2"/>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="1"/>
+      <c r="A402" s="2"/>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="1"/>
+      <c r="A403" s="2"/>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="1"/>
+      <c r="A404" s="2"/>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="1"/>
+      <c r="A405" s="2"/>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="1"/>
+      <c r="A406" s="2"/>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="1"/>
+      <c r="A407" s="2"/>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="1"/>
+      <c r="A408" s="2"/>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="1"/>
+      <c r="A409" s="2"/>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="1"/>
+      <c r="A410" s="2"/>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="1"/>
+      <c r="A411" s="2"/>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="1"/>
+      <c r="A412" s="2"/>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="1"/>
+      <c r="A413" s="2"/>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="1"/>
+      <c r="A414" s="2"/>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="1"/>
+      <c r="A415" s="2"/>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="1"/>
+      <c r="A416" s="2"/>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="1"/>
+      <c r="A417" s="2"/>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="1"/>
+      <c r="A418" s="2"/>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="1"/>
+      <c r="A419" s="2"/>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="1"/>
+      <c r="A420" s="2"/>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="1"/>
+      <c r="A421" s="2"/>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="1"/>
+      <c r="A422" s="2"/>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="1"/>
+      <c r="A423" s="2"/>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="1"/>
+      <c r="A424" s="2"/>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="1"/>
+      <c r="A425" s="2"/>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="1"/>
+      <c r="A426" s="2"/>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="1"/>
+      <c r="A427" s="2"/>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="1"/>
+      <c r="A428" s="2"/>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="1"/>
+      <c r="A429" s="2"/>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="1"/>
+      <c r="A430" s="2"/>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="1"/>
+      <c r="A431" s="2"/>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="1"/>
+      <c r="A432" s="2"/>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="1"/>
+      <c r="A433" s="2"/>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="1"/>
+      <c r="A434" s="2"/>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="1"/>
+      <c r="A435" s="2"/>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="1"/>
+      <c r="A436" s="2"/>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="1"/>
+      <c r="A437" s="2"/>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="1"/>
+      <c r="A438" s="2"/>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="1"/>
+      <c r="A439" s="2"/>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="1"/>
-    </row>
-    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="1"/>
-    </row>
-    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="1"/>
-    </row>
-    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="1"/>
-    </row>
-    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="1"/>
+      <c r="A440" s="2"/>
+    </row>
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="2"/>
+    </row>
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="2"/>
+    </row>
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="2"/>
+    </row>
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="2"/>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="1"/>
+      <c r="A543" s="2"/>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="1"/>
+      <c r="A544" s="2"/>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="1"/>
+      <c r="A545" s="2"/>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="1"/>
+      <c r="A546" s="2"/>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="1"/>
+      <c r="A547" s="2"/>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="1"/>
+      <c r="A548" s="2"/>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="1"/>
+      <c r="A549" s="2"/>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="1"/>
+      <c r="A550" s="2"/>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="1"/>
+      <c r="A551" s="2"/>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="1"/>
+      <c r="A552" s="2"/>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="1"/>
+      <c r="A553" s="2"/>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="1"/>
+      <c r="A554" s="2"/>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="1"/>
+      <c r="A555" s="2"/>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="1"/>
+      <c r="A556" s="2"/>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="1"/>
+      <c r="A557" s="2"/>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="1"/>
+      <c r="A558" s="2"/>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="1"/>
+      <c r="A559" s="2"/>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="1"/>
+      <c r="A560" s="2"/>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="1"/>
+      <c r="A561" s="2"/>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="1"/>
+      <c r="A562" s="2"/>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="1"/>
+      <c r="A563" s="2"/>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="1"/>
+      <c r="A564" s="2"/>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="1"/>
+      <c r="A565" s="2"/>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="1"/>
+      <c r="A566" s="2"/>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="1"/>
+      <c r="A567" s="2"/>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="1"/>
+      <c r="A568" s="2"/>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="1"/>
+      <c r="A569" s="2"/>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="1"/>
+      <c r="A570" s="2"/>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="1"/>
+      <c r="A571" s="2"/>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="1"/>
+      <c r="A572" s="2"/>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="1"/>
+      <c r="A573" s="2"/>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="1"/>
+      <c r="A574" s="2"/>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="1"/>
+      <c r="A575" s="2"/>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="1"/>
+      <c r="A576" s="2"/>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="1"/>
+      <c r="A577" s="2"/>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="1"/>
+      <c r="A578" s="2"/>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="1"/>
+      <c r="A579" s="2"/>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="1"/>
+      <c r="A580" s="2"/>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="1"/>
+      <c r="A581" s="2"/>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="1"/>
+      <c r="A582" s="2"/>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="1"/>
+      <c r="A583" s="2"/>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="1"/>
+      <c r="A584" s="2"/>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="1"/>
+      <c r="A585" s="2"/>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="1"/>
+      <c r="A586" s="2"/>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="1"/>
+      <c r="A587" s="2"/>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="1"/>
+      <c r="A588" s="2"/>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="1"/>
+      <c r="A589" s="2"/>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="1"/>
+      <c r="A590" s="2"/>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="1"/>
+      <c r="A591" s="2"/>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="1"/>
+      <c r="A592" s="2"/>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="1"/>
+      <c r="A593" s="2"/>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="1"/>
+      <c r="A594" s="2"/>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="1"/>
+      <c r="A595" s="2"/>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="1"/>
+      <c r="A596" s="2"/>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="1"/>
+      <c r="A597" s="2"/>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="1"/>
+      <c r="A598" s="2"/>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="1"/>
+      <c r="A599" s="2"/>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="1"/>
+      <c r="A600" s="2"/>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="1"/>
+      <c r="A601" s="2"/>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="1"/>
+      <c r="A602" s="2"/>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="1"/>
+      <c r="A603" s="2"/>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="1"/>
+      <c r="A604" s="2"/>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="1"/>
+      <c r="A605" s="2"/>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="1"/>
+      <c r="A606" s="2"/>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="1"/>
+      <c r="A607" s="2"/>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="1"/>
+      <c r="A608" s="2"/>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="1"/>
+      <c r="A609" s="2"/>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="1"/>
+      <c r="A610" s="2"/>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="1"/>
+      <c r="A611" s="2"/>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="1"/>
+      <c r="A612" s="2"/>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="1"/>
+      <c r="A613" s="2"/>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="1"/>
+      <c r="A614" s="2"/>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="1"/>
+      <c r="A615" s="2"/>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="1"/>
+      <c r="A616" s="2"/>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="1"/>
+      <c r="A617" s="2"/>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="1"/>
+      <c r="A618" s="2"/>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="1"/>
+      <c r="A619" s="2"/>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="1"/>
+      <c r="A620" s="2"/>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="1"/>
+      <c r="A621" s="2"/>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="1"/>
+      <c r="A622" s="2"/>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="1"/>
+      <c r="A623" s="2"/>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="1"/>
+      <c r="A624" s="2"/>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="1"/>
+      <c r="A625" s="2"/>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="1"/>
+      <c r="A626" s="2"/>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="1"/>
+      <c r="A627" s="2"/>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="1"/>
+      <c r="A628" s="2"/>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="1"/>
+      <c r="A629" s="2"/>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="1"/>
+      <c r="A630" s="2"/>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="1"/>
+      <c r="A631" s="2"/>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="1"/>
+      <c r="A632" s="2"/>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="1"/>
+      <c r="A633" s="2"/>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="1"/>
+      <c r="A634" s="2"/>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="1"/>
+      <c r="A635" s="2"/>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="1"/>
+      <c r="A636" s="2"/>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="1"/>
+      <c r="A637" s="2"/>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="1"/>
+      <c r="A638" s="2"/>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="1"/>
+      <c r="A639" s="2"/>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="1"/>
+      <c r="A640" s="2"/>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="1"/>
+      <c r="A641" s="2"/>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="1"/>
+      <c r="A642" s="2"/>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="1"/>
+      <c r="A643" s="2"/>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="1"/>
+      <c r="A644" s="2"/>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="1"/>
+      <c r="A645" s="2"/>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="1"/>
+      <c r="A646" s="2"/>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="1"/>
+      <c r="A647" s="2"/>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="1"/>
+      <c r="A648" s="2"/>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="1"/>
+      <c r="A649" s="2"/>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="1"/>
+      <c r="A650" s="2"/>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="1"/>
+      <c r="A651" s="2"/>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="1"/>
+      <c r="A652" s="2"/>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="1"/>
+      <c r="A653" s="2"/>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="1"/>
+      <c r="A654" s="2"/>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="1"/>
+      <c r="A655" s="2"/>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="1"/>
+      <c r="A656" s="2"/>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="1"/>
+      <c r="A657" s="2"/>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="1"/>
+      <c r="A658" s="2"/>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="1"/>
+      <c r="A659" s="2"/>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="1"/>
+      <c r="A660" s="2"/>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="1"/>
+      <c r="A661" s="2"/>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="1"/>
+      <c r="A662" s="2"/>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="1"/>
+      <c r="A663" s="2"/>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="1"/>
+      <c r="A664" s="2"/>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="1"/>
+      <c r="A665" s="2"/>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="1"/>
+      <c r="A666" s="2"/>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="1"/>
+      <c r="A667" s="2"/>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="1"/>
+      <c r="A668" s="2"/>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="1"/>
+      <c r="A669" s="2"/>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="1"/>
+      <c r="A670" s="2"/>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="1"/>
+      <c r="A671" s="2"/>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="1"/>
+      <c r="A672" s="2"/>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="1"/>
+      <c r="A673" s="2"/>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="1"/>
+      <c r="A674" s="2"/>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="1"/>
+      <c r="A675" s="2"/>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="1"/>
+      <c r="A676" s="2"/>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="1"/>
+      <c r="A677" s="2"/>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="1"/>
+      <c r="A678" s="2"/>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="1"/>
+      <c r="A679" s="2"/>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="1"/>
+      <c r="A680" s="2"/>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="1"/>
+      <c r="A681" s="2"/>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="1"/>
+      <c r="A682" s="2"/>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="1"/>
+      <c r="A683" s="2"/>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="1"/>
+      <c r="A684" s="2"/>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="1"/>
+      <c r="A685" s="2"/>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="1"/>
+      <c r="A686" s="2"/>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="1"/>
+      <c r="A687" s="2"/>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="1"/>
+      <c r="A688" s="2"/>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="1"/>
+      <c r="A689" s="2"/>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="1"/>
+      <c r="A690" s="2"/>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="1"/>
+      <c r="A691" s="2"/>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="1"/>
+      <c r="A692" s="2"/>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="1"/>
+      <c r="A693" s="2"/>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="1"/>
+      <c r="A694" s="2"/>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="1"/>
+      <c r="A695" s="2"/>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="1"/>
+      <c r="A696" s="2"/>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="1"/>
+      <c r="A697" s="2"/>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="1"/>
+      <c r="A698" s="2"/>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="1"/>
+      <c r="A699" s="2"/>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="1"/>
+      <c r="A700" s="2"/>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="1"/>
+      <c r="A701" s="2"/>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="1"/>
+      <c r="A702" s="2"/>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="1"/>
+      <c r="A703" s="2"/>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="1"/>
+      <c r="A704" s="2"/>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="1"/>
+      <c r="A705" s="2"/>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="1"/>
+      <c r="A706" s="2"/>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="1"/>
+      <c r="A707" s="2"/>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="1"/>
+      <c r="A708" s="2"/>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="1"/>
+      <c r="A709" s="2"/>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="1"/>
+      <c r="A710" s="2"/>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="1"/>
+      <c r="A711" s="2"/>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="1"/>
+      <c r="A712" s="2"/>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="1"/>
+      <c r="A713" s="2"/>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="1"/>
+      <c r="A714" s="2"/>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="1"/>
+      <c r="A715" s="2"/>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="1"/>
+      <c r="A716" s="2"/>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="1"/>
+      <c r="A717" s="2"/>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="1"/>
+      <c r="A718" s="2"/>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="1"/>
+      <c r="A719" s="2"/>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="1"/>
+      <c r="A720" s="2"/>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="1"/>
+      <c r="A721" s="2"/>
     </row>
     <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="1"/>
+      <c r="A722" s="2"/>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A723" s="1"/>
+      <c r="A723" s="2"/>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A724" s="1"/>
+      <c r="A724" s="2"/>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="1"/>
+      <c r="A725" s="2"/>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A726" s="1"/>
+      <c r="A726" s="2"/>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A727" s="1"/>
+      <c r="A727" s="2"/>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A728" s="1"/>
+      <c r="A728" s="2"/>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A729" s="1"/>
+      <c r="A729" s="2"/>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A730" s="1"/>
+      <c r="A730" s="2"/>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A731" s="1"/>
+      <c r="A731" s="2"/>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A732" s="1"/>
+      <c r="A732" s="2"/>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A733" s="1"/>
+      <c r="A733" s="2"/>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A734" s="1"/>
+      <c r="A734" s="2"/>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A735" s="1"/>
+      <c r="A735" s="2"/>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A736" s="1"/>
+      <c r="A736" s="2"/>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A737" s="1"/>
+      <c r="A737" s="2"/>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A738" s="1"/>
+      <c r="A738" s="2"/>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A739" s="1"/>
+      <c r="A739" s="2"/>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A740" s="1"/>
+      <c r="A740" s="2"/>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A741" s="1"/>
+      <c r="A741" s="2"/>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="1"/>
+      <c r="A742" s="2"/>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A743" s="1"/>
+      <c r="A743" s="2"/>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="1"/>
+      <c r="A744" s="2"/>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A745" s="1"/>
+      <c r="A745" s="2"/>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="1"/>
+      <c r="A746" s="2"/>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A747" s="1"/>
+      <c r="A747" s="2"/>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A748" s="1"/>
+      <c r="A748" s="2"/>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="1"/>
+      <c r="A749" s="2"/>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A750" s="1"/>
+      <c r="A750" s="2"/>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="1"/>
+      <c r="A751" s="2"/>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A752" s="1"/>
+      <c r="A752" s="2"/>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A753" s="1"/>
+      <c r="A753" s="2"/>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="1"/>
+      <c r="A754" s="2"/>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A755" s="1"/>
+      <c r="A755" s="2"/>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A756" s="1"/>
+      <c r="A756" s="2"/>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="1"/>
+      <c r="A757" s="2"/>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="1"/>
+      <c r="A758" s="2"/>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A759" s="1"/>
+      <c r="A759" s="2"/>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A760" s="1"/>
+      <c r="A760" s="2"/>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A761" s="1"/>
+      <c r="A761" s="2"/>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A762" s="1"/>
+      <c r="A762" s="2"/>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A763" s="1"/>
+      <c r="A763" s="2"/>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A764" s="1"/>
+      <c r="A764" s="2"/>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="1"/>
+      <c r="A765" s="2"/>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A766" s="1"/>
+      <c r="A766" s="2"/>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="1"/>
+      <c r="A767" s="2"/>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A768" s="1"/>
+      <c r="A768" s="2"/>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A769" s="1"/>
+      <c r="A769" s="2"/>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A770" s="1"/>
+      <c r="A770" s="2"/>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A771" s="1"/>
+      <c r="A771" s="2"/>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A772" s="1"/>
+      <c r="A772" s="2"/>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A773" s="1"/>
+      <c r="A773" s="2"/>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A774" s="1"/>
+      <c r="A774" s="2"/>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A775" s="1"/>
+      <c r="A775" s="2"/>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="1"/>
+      <c r="A776" s="2"/>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="1"/>
+      <c r="A777" s="2"/>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="1"/>
+      <c r="A778" s="2"/>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="1"/>
+      <c r="A779" s="2"/>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="1"/>
+      <c r="A780" s="2"/>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="1"/>
+      <c r="A781" s="2"/>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A782" s="1"/>
+      <c r="A782" s="2"/>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A783" s="1"/>
+      <c r="A783" s="2"/>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A784" s="1"/>
+      <c r="A784" s="2"/>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A785" s="1"/>
+      <c r="A785" s="2"/>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A786" s="1"/>
+      <c r="A786" s="2"/>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="1"/>
+      <c r="A787" s="2"/>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A788" s="1"/>
+      <c r="A788" s="2"/>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A789" s="1"/>
+      <c r="A789" s="2"/>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="1"/>
+      <c r="A790" s="2"/>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="1"/>
+      <c r="A791" s="2"/>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="1"/>
+      <c r="A792" s="2"/>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A793" s="1"/>
+      <c r="A793" s="2"/>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A794" s="1"/>
+      <c r="A794" s="2"/>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="1"/>
+      <c r="A795" s="2"/>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A796" s="1"/>
+      <c r="A796" s="2"/>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A797" s="1"/>
+      <c r="A797" s="2"/>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A798" s="1"/>
+      <c r="A798" s="2"/>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A799" s="1"/>
+      <c r="A799" s="2"/>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A800" s="1"/>
+      <c r="A800" s="2"/>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A801" s="1"/>
+      <c r="A801" s="2"/>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A802" s="1"/>
+      <c r="A802" s="2"/>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A803" s="1"/>
+      <c r="A803" s="2"/>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A804" s="1"/>
+      <c r="A804" s="2"/>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A805" s="1"/>
+      <c r="A805" s="2"/>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A806" s="1"/>
+      <c r="A806" s="2"/>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A807" s="1"/>
+      <c r="A807" s="2"/>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A808" s="1"/>
+      <c r="A808" s="2"/>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="1"/>
+      <c r="A809" s="2"/>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="1"/>
+      <c r="A810" s="2"/>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="1"/>
+      <c r="A811" s="2"/>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="1"/>
+      <c r="A812" s="2"/>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="1"/>
+      <c r="A813" s="2"/>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="1"/>
+      <c r="A814" s="2"/>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A815" s="1"/>
+      <c r="A815" s="2"/>
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="1"/>
+      <c r="A816" s="2"/>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="1"/>
+      <c r="A817" s="2"/>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="1"/>
+      <c r="A818" s="2"/>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A819" s="1"/>
+      <c r="A819" s="2"/>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A820" s="1"/>
+      <c r="A820" s="2"/>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A821" s="1"/>
+      <c r="A821" s="2"/>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A822" s="1"/>
+      <c r="A822" s="2"/>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A823" s="1"/>
+      <c r="A823" s="2"/>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="1"/>
+      <c r="A824" s="2"/>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A825" s="1"/>
+      <c r="A825" s="2"/>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A826" s="1"/>
+      <c r="A826" s="2"/>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="1"/>
+      <c r="A827" s="2"/>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A828" s="1"/>
+      <c r="A828" s="2"/>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A829" s="1"/>
+      <c r="A829" s="2"/>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A830" s="1"/>
+      <c r="A830" s="2"/>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A831" s="1"/>
+      <c r="A831" s="2"/>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A832" s="1"/>
+      <c r="A832" s="2"/>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A833" s="1"/>
+      <c r="A833" s="2"/>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A834" s="1"/>
+      <c r="A834" s="2"/>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A835" s="1"/>
+      <c r="A835" s="2"/>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A836" s="1"/>
+      <c r="A836" s="2"/>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A837" s="1"/>
+      <c r="A837" s="2"/>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A838" s="1"/>
+      <c r="A838" s="2"/>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="1"/>
+      <c r="A839" s="2"/>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A840" s="1"/>
+      <c r="A840" s="2"/>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A841" s="1"/>
+      <c r="A841" s="2"/>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="1"/>
+      <c r="A842" s="2"/>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A843" s="1"/>
+      <c r="A843" s="2"/>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A844" s="1"/>
+      <c r="A844" s="2"/>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A845" s="1"/>
+      <c r="A845" s="2"/>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A846" s="1"/>
+      <c r="A846" s="2"/>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A847" s="1"/>
+      <c r="A847" s="2"/>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A848" s="1"/>
+      <c r="A848" s="2"/>
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A849" s="1"/>
+      <c r="A849" s="2"/>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="1"/>
+      <c r="A850" s="2"/>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A851" s="1"/>
+      <c r="A851" s="2"/>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A852" s="1"/>
+      <c r="A852" s="2"/>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A853" s="1"/>
+      <c r="A853" s="2"/>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A854" s="1"/>
+      <c r="A854" s="2"/>
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="1"/>
+      <c r="A855" s="2"/>
     </row>
     <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="1"/>
+      <c r="A856" s="2"/>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A857" s="1"/>
+      <c r="A857" s="2"/>
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A858" s="1"/>
+      <c r="A858" s="2"/>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A859" s="1"/>
+      <c r="A859" s="2"/>
     </row>
     <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A860" s="1"/>
+      <c r="A860" s="2"/>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="1"/>
+      <c r="A861" s="2"/>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="1"/>
+      <c r="A862" s="2"/>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A863" s="1"/>
+      <c r="A863" s="2"/>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="1"/>
+      <c r="A864" s="2"/>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="1"/>
+      <c r="A865" s="2"/>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="1"/>
+      <c r="A866" s="2"/>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A867" s="1"/>
+      <c r="A867" s="2"/>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="1"/>
+      <c r="A868" s="2"/>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="1"/>
+      <c r="A869" s="2"/>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="1"/>
+      <c r="A870" s="2"/>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="1"/>
+      <c r="A871" s="2"/>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A872" s="1"/>
+      <c r="A872" s="2"/>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="1"/>
+      <c r="A873" s="2"/>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="1"/>
+      <c r="A874" s="2"/>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A875" s="1"/>
+      <c r="A875" s="2"/>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A876" s="1"/>
+      <c r="A876" s="2"/>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A877" s="1"/>
+      <c r="A877" s="2"/>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="1"/>
+      <c r="A878" s="2"/>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A879" s="1"/>
+      <c r="A879" s="2"/>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A880" s="1"/>
+      <c r="A880" s="2"/>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="1"/>
+      <c r="A881" s="2"/>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A882" s="1"/>
+      <c r="A882" s="2"/>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="1"/>
+      <c r="A883" s="2"/>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="1"/>
+      <c r="A884" s="2"/>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="1"/>
+      <c r="A885" s="2"/>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="1"/>
+      <c r="A886" s="2"/>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A887" s="1"/>
+      <c r="A887" s="2"/>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A888" s="1"/>
+      <c r="A888" s="2"/>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A889" s="1"/>
+      <c r="A889" s="2"/>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A890" s="1"/>
+      <c r="A890" s="2"/>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A891" s="1"/>
+      <c r="A891" s="2"/>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A892" s="1"/>
+      <c r="A892" s="2"/>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A893" s="1"/>
+      <c r="A893" s="2"/>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A894" s="1"/>
+      <c r="A894" s="2"/>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A895" s="1"/>
+      <c r="A895" s="2"/>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A896" s="1"/>
+      <c r="A896" s="2"/>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A897" s="1"/>
+      <c r="A897" s="2"/>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="1"/>
+      <c r="A898" s="2"/>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A899" s="1"/>
+      <c r="A899" s="2"/>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="1"/>
+      <c r="A900" s="2"/>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A901" s="1"/>
+      <c r="A901" s="2"/>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A902" s="1"/>
+      <c r="A902" s="2"/>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="1"/>
+      <c r="A903" s="2"/>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="1"/>
+      <c r="A904" s="2"/>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A905" s="1"/>
+      <c r="A905" s="2"/>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="1"/>
+      <c r="A906" s="2"/>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="1"/>
+      <c r="A907" s="2"/>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A908" s="1"/>
+      <c r="A908" s="2"/>
     </row>
     <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A909" s="1"/>
+      <c r="A909" s="2"/>
     </row>
     <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A910" s="1"/>
+      <c r="A910" s="2"/>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="1"/>
+      <c r="A911" s="2"/>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A912" s="1"/>
+      <c r="A912" s="2"/>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="1"/>
+      <c r="A913" s="2"/>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="1"/>
+      <c r="A914" s="2"/>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="1"/>
+      <c r="A915" s="2"/>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A916" s="1"/>
+      <c r="A916" s="2"/>
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A917" s="1"/>
+      <c r="A917" s="2"/>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="1"/>
+      <c r="A918" s="2"/>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="1"/>
+      <c r="A919" s="2"/>
     </row>
     <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A920" s="1"/>
+      <c r="A920" s="2"/>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A921" s="1"/>
+      <c r="A921" s="2"/>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="1"/>
+      <c r="A922" s="2"/>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="1"/>
+      <c r="A923" s="2"/>
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A924" s="1"/>
+      <c r="A924" s="2"/>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="1"/>
+      <c r="A925" s="2"/>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A926" s="1"/>
+      <c r="A926" s="2"/>
     </row>
     <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A927" s="1"/>
+      <c r="A927" s="2"/>
     </row>
     <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A928" s="1"/>
+      <c r="A928" s="2"/>
     </row>
     <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A929" s="1"/>
+      <c r="A929" s="2"/>
     </row>
     <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A930" s="1"/>
+      <c r="A930" s="2"/>
     </row>
     <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A931" s="1"/>
+      <c r="A931" s="2"/>
     </row>
     <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A932" s="1"/>
+      <c r="A932" s="2"/>
     </row>
     <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A933" s="1"/>
+      <c r="A933" s="2"/>
     </row>
     <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A934" s="1"/>
+      <c r="A934" s="2"/>
     </row>
     <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A935" s="1"/>
+      <c r="A935" s="2"/>
     </row>
     <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A936" s="1"/>
+      <c r="A936" s="2"/>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="1"/>
+      <c r="A937" s="2"/>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A938" s="1"/>
+      <c r="A938" s="2"/>
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A939" s="1"/>
+      <c r="A939" s="2"/>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="1"/>
+      <c r="A940" s="2"/>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A941" s="1"/>
+      <c r="A941" s="2"/>
     </row>
     <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A942" s="1"/>
+      <c r="A942" s="2"/>
     </row>
     <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A943" s="1"/>
+      <c r="A943" s="2"/>
     </row>
     <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A944" s="1"/>
+      <c r="A944" s="2"/>
     </row>
     <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A945" s="1"/>
+      <c r="A945" s="2"/>
     </row>
     <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="1"/>
+      <c r="A946" s="2"/>
     </row>
     <row r="947" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A947" s="1"/>
+      <c r="A947" s="2"/>
     </row>
     <row r="948" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A948" s="1"/>
+      <c r="A948" s="2"/>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="1"/>
+      <c r="A949" s="2"/>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="1"/>
+      <c r="A950" s="2"/>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="1"/>
+      <c r="A951" s="2"/>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="1"/>
+      <c r="A952" s="2"/>
     </row>
     <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="1"/>
+      <c r="A953" s="2"/>
     </row>
     <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A954" s="1"/>
+      <c r="A954" s="2"/>
     </row>
     <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="1"/>
+      <c r="A955" s="2"/>
     </row>
     <row r="956" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A956" s="1"/>
+      <c r="A956" s="2"/>
     </row>
     <row r="957" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="1"/>
+      <c r="A957" s="2"/>
     </row>
     <row r="958" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A958" s="1"/>
+      <c r="A958" s="2"/>
     </row>
     <row r="959" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A959" s="1"/>
+      <c r="A959" s="2"/>
     </row>
     <row r="960" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A960" s="1"/>
+      <c r="A960" s="2"/>
     </row>
     <row r="961" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A961" s="1"/>
+      <c r="A961" s="2"/>
     </row>
     <row r="962" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A962" s="1"/>
+      <c r="A962" s="2"/>
     </row>
     <row r="963" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A963" s="1"/>
+      <c r="A963" s="2"/>
     </row>
     <row r="964" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A964" s="1"/>
+      <c r="A964" s="2"/>
     </row>
     <row r="965" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A965" s="1"/>
+      <c r="A965" s="2"/>
     </row>
     <row r="966" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="1"/>
+      <c r="A966" s="2"/>
     </row>
     <row r="967" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="1"/>
+      <c r="A967" s="2"/>
     </row>
     <row r="968" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="1"/>
+      <c r="A968" s="2"/>
     </row>
     <row r="969" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A969" s="1"/>
+      <c r="A969" s="2"/>
     </row>
     <row r="970" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="1"/>
+      <c r="A970" s="2"/>
     </row>
     <row r="971" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="1"/>
+      <c r="A971" s="2"/>
     </row>
     <row r="972" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="1"/>
+      <c r="A972" s="2"/>
     </row>
     <row r="973" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A973" s="1"/>
+      <c r="A973" s="2"/>
     </row>
     <row r="974" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A974" s="1"/>
+      <c r="A974" s="2"/>
     </row>
     <row r="975" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A975" s="1"/>
+      <c r="A975" s="2"/>
     </row>
     <row r="976" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A976" s="1"/>
+      <c r="A976" s="2"/>
     </row>
     <row r="977" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A977" s="1"/>
+      <c r="A977" s="2"/>
     </row>
     <row r="978" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A978" s="1"/>
+      <c r="A978" s="2"/>
     </row>
     <row r="979" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A979" s="1"/>
+      <c r="A979" s="2"/>
     </row>
     <row r="980" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A980" s="1"/>
+      <c r="A980" s="2"/>
     </row>
     <row r="981" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A981" s="1"/>
+      <c r="A981" s="2"/>
     </row>
     <row r="982" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A982" s="1"/>
+      <c r="A982" s="2"/>
     </row>
     <row r="983" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A983" s="1"/>
+      <c r="A983" s="2"/>
     </row>
     <row r="984" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A984" s="1"/>
+      <c r="A984" s="2"/>
     </row>
     <row r="985" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A985" s="1"/>
+      <c r="A985" s="2"/>
     </row>
     <row r="986" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A986" s="1"/>
+      <c r="A986" s="2"/>
     </row>
     <row r="987" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A987" s="1"/>
+      <c r="A987" s="2"/>
     </row>
     <row r="988" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A988" s="1"/>
+      <c r="A988" s="2"/>
     </row>
     <row r="989" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A989" s="1"/>
+      <c r="A989" s="2"/>
     </row>
     <row r="990" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A990" s="1"/>
+      <c r="A990" s="2"/>
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A991" s="1"/>
+      <c r="A991" s="2"/>
     </row>
     <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="1"/>
+      <c r="A992" s="2"/>
     </row>
     <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="1"/>
+      <c r="A993" s="2"/>
     </row>
     <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="1"/>
+      <c r="A994" s="2"/>
     </row>
     <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="1"/>
+      <c r="A995" s="2"/>
     </row>
     <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="1"/>
+      <c r="A996" s="2"/>
     </row>
     <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="1"/>
+      <c r="A997" s="2"/>
     </row>
     <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="1"/>
+      <c r="A998" s="2"/>
     </row>
     <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="1"/>
+      <c r="A999" s="2"/>
     </row>
     <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="1"/>
+      <c r="A1000" s="2"/>
+    </row>
+    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1001" s="2"/>
+    </row>
+    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1002" s="2"/>
+    </row>
+    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1003" s="2"/>
+    </row>
+    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1004" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/run/overrides.xlsx
+++ b/run/overrides.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="159">
   <si>
     <t xml:space="preserve">databaseId</t>
   </si>
@@ -160,619 +160,316 @@
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">06127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cryptic Souls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06127b.webp</t>
+    <t xml:space="preserve">06346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlach-Nacha: The Spider God</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/06/06346a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">multi_sided</t>
   </si>
   <si>
+    <t xml:space="preserve">Enemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weaver of the Cosmos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">woc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mythos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ancient One. Spider. Elite.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massive.  &lt;b&gt;Forced&lt;/b&gt; - When Atlach-Nacha leaves a location: If there are no investigators at that location, place 1 doom there. Otherwise, it attacks each investigator at that location.  &lt;b&gt;Forced&lt;/b&gt; - After you evade Atlach-Nacha: Instead of exhausting it, choose an investigator at your location. It cannot attack the chosen investigator this round.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlach-Nacha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/06/06346b.webp</t>
+  </si>
+  <si>
     <t xml:space="preserve">Story</t>
   </si>
   <si>
-    <t xml:space="preserve">The Search for Kadath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sfk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mythos.</t>
-  </si>
-  <si>
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;b&gt;&lt;hr&gt;Check Campaign Log. &lt;i&gt;If the cats collected their tribute from the Zoogs&lt;/i&gt;, read the following:&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;blockquote&gt;&lt;i&gt;One by one, the cats demand a tribute in the form of physical affection. Despite the urgency of your task, they rub against your legs, leap onto your lap, and do not leave until they are thoroughly adored.&lt;/i&gt;&lt;/blockquote&gt;&lt;/p&gt;&lt;p&gt;Lose all of your remaining actions and end your turn.&lt;/p&gt;&lt;p&gt;&lt;hr&gt;&lt;b&gt;&lt;i&gt;If the investigators forced their way into the temple&lt;/i&gt;, read the following:&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;blockquote&gt;&lt;i&gt;The next thing you know, the cats have you completely surrounded. They hiss and growl, closing in from all sides.&lt;/i&gt;&lt;/blockquote&gt;&lt;/p&gt;&lt;p&gt;Spawn the Cats of Ulthar enemy engaged with you.&lt;/p&gt;&lt;p&gt;&lt;hr&gt;&lt;b&gt;Regardless:&lt;/b&gt;&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dreamlike Horrors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06128b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Cancel the effects of the move.&lt;/p&gt;&lt;p&gt;If there are no &lt;b&gt;&lt;i&gt;Creature&lt;/i&gt;&lt;/b&gt; enemies at Skai River, discard cards from the top of the encounter deck until a &lt;b&gt;&lt;i&gt;Creature&lt;/i&gt;&lt;/b&gt; enemy is discarded, and spawn that enemy engaged with you.&lt;/p&gt;&lt;p&gt;Otherwise, add 1 swarm card to a &lt;b&gt;&lt;i&gt;Creature&lt;/i&gt;&lt;/b&gt; enemy at Skai River.&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endless Secrets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06129b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;You have uncovered a Sign of the Gods &lt;i&gt;(place 1 resource on the scenario reference card to indicate this)&lt;/i&gt;. For the remainder of the scenario, resources on the scenario reference card represent Signs of the Gods the investigators have uncovered. Your quest is to uncover as many of these signs as you can in order to discern the location of Kadath.&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cylinders of Kadatheron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06130b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;You have uncovered a Sign of the Gods &lt;i&gt;(place 1 resource on the scenario reference card)&lt;/i&gt;.&lt;/p&gt;&lt;p&gt;Shuffle 1 set-aside copy of Tenebrous Nightgaunt into the encounter deck, if able.&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Doom of Sarnath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06131b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;You have uncovered a Sign of the Gods &lt;i&gt;(place 1 resource on the scenario reference card)&lt;/i&gt;.&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghosts of the Dead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06132b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">132</t>
+    <t xml:space="preserve">87005a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tindalos: Realm of Angular Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/87/87005aa.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machinations Through Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mtt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Past. Present. Future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tindalos is connected to each [[Portal]] location, and vice versa.  [fast] If it is your turn: Move to a [[Portal]] location.  [action]: Test [combat] (2) or [agility] (2). If you succeed, rescue an abducted [[Scientist]] asset and put it into play at Tindalos, exhausted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tindalos: Maze of Infinite Depths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/87/87005ab.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epic Multiplayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tindalos is connected to each [[Portal]] location, and vice versa.  [fast]: Place 1 of your clues on Tindalos, or take control of 1 clue on a Tindalos location in any era.  [action]: Test [combat] (3) or [agility] (3). If you succeed, rescue an abducted [[Scientist]] asset and put it into play at Tindalos, exhausted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Noble Legacy (Past)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/87/87006a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Setup&lt;/b&gt;: Place the Nikola Tesla asset at the [[Past]] River Docks. Flip this story card over.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/87/87006b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[action] If you, Thomas Corrigan, and Mary Zielinski are all at the [[Past]] Miskatonic University: Announce "Thomas and Mary have met."  [action] If Thomas Corrigan, Mary Zielinski, and Nikola Tesla are all at the same location, spend 2 [per_investigator] clues, as a group: Announce "Thomas and Mary are inspired by Nikola Tesla."  [fast] If you are at the [[Past]] Miskatonic University, spend 2 [per_investigator] resources: Announce "funding for an observatory has begun."  &lt;b&gt;Objective&lt;/b&gt; - If all 3 abilities on this story card have been triggered, add it to the victory display &lt;i&gt;(Place a resource token over each ability when it is triggered)&lt;/i&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Noble Legacy (Present)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/87/87015a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;Remember that the investigators "know what happened to Ib."&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Palace of Rainbows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06133b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Each investigator at Ilek-Vad heals 2 horror and draws 2 cards.&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Shrine to the Gods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06134b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Crypt of Zulan-Thek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06135b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;You have uncovered a Sign of the Gods &lt;i&gt;(place 1 resource on the scenario reference card)&lt;/i&gt;.&lt;/p&gt;&lt;p&gt;Add Horde of Night to the victory display.&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wares of Baharna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06136b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Each investigator at Baharna may return an &lt;b&gt;&lt;i&gt;Item&lt;/i&gt;&lt;/b&gt; or &lt;b&gt;&lt;i&gt;Supply&lt;/i&gt;&lt;/b&gt; card from their discard pile to their hand.&lt;/p&gt;&lt;p&gt;Remember that the investigators have "obtained supplies from Baharna."&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Likeness of Old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06137b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What Remains of Tyrrhia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06138b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advice of the King</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06139b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Remember that you have "beseeched the King."&lt;/p&gt;&lt;p&gt;Shuffle 1 set-aside copy of Tenebrous Nightgaunt into the encounter deck, if able.&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timeless Beauty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06140b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Each investigator at Serannian heals 2 damage and gains 2 resources.&lt;/p&gt;&lt;p&gt;You have uncovered a Sign of the Gods &lt;i&gt;(place 1 resource on the scenario reference card)&lt;/i&gt;.&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unattainable Desires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06141b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Put the set-aside Temple of Unattainable Desires location into play.&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The City Inside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06142b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">142</t>
+    <t xml:space="preserve">&lt;b&gt;Setup&lt;/b&gt;: Place the Ezra Graves asset at the [[Present]] Arkham Advertiser. Flip this story card over.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/87/87015b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[action] If you are at the [[Present]] Miskatonic University and "funding for an observatory has begun:" Announce "the observatory is built."  [action] If "the observatory is built," "Thomas and Mary are inspired by Nikola Tesla," and Thomas Corrigan, Mary Zielinski and Ezra Graves are at the [[Present]] Miskatonic University, spend 2 [per_investigator] clues, as a group (4 [per_investigator] clues, as a group, instead if you are playing in &lt;i&gt;Epic Multiplayer Mode&lt;/i&gt;): Announce "teleportation research has begun."  [fast] If "Thomas and Mary have met" and Thomas Corrigan and Mary Zielinski are at Ye Olde Magick Shoppe, spend 1 [per_investigator] resources: Announce "Corrigan Industries has been founded" and put the set-aside Corrigan Industries location into play in the future era.  &lt;b&gt;Objective&lt;/b&gt; - If all 3 abilities on this story card have been triggered, add it to the victory display &lt;i&gt;(place a resource token over each ability when it is triggered)&lt;/i&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Noble Legacy (Future)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/87/87024a.webp</t>
   </si>
   <si>
     <t xml:space="preserve">24</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;p&gt;Put the set-aside City-Which-Appears-On-No-Map location into play.&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Baleful Star</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06143b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;You have uncovered two Signs of the Gods &lt;i&gt;(place 2 resources on the scenario reference card)&lt;/i&gt;.&lt;/p&gt;&lt;p&gt;Discard each enemy here. Move each investigator here to the Temple of Unattainable Desires (cannot be canceled). Flip this card back over and add it to the victory display.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Off the Galley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06214b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dark Side of the Moon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dsm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;b&gt;If there were no clues on this card when it was flipped, read the following:&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;&lt;blockquote&gt;Moving as stealthily as you can, you find a dinghy tied to the side of the ship, two oars left inside. If this galley can move through space using oars, surely this lifeboat can, too. Making sure to stay as quiet as possible, you hop inside the small boat and make your escape.&lt;/blockquote&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;Move each investigator here to the Moon-Forest.&lt;/p&gt;&lt;p&gt;Remove this card from the game, discarding all enemies here.&lt;hr&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;If there were 1 or more clues on this card when it was flipped, read the following:&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;&lt;blockquote&gt;The ship docks at a great city of stone towers, and you slip away as the guards search for you.&lt;/blockquote&gt;&lt;/i&gt;Each investigator here raises their alarm level by 1.&lt;/p&gt;&lt;p&gt;Move each investigator here to the City of the Moon-Beasts, along with each enemy here.&lt;/p&gt;&lt;p&gt;Remove this card from the game.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghastly Tunnels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06254b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Point of No Return</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pnr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Search the encounter deck and discard pile for a &lt;b&gt;&lt;i&gt;Ghast&lt;/i&gt;&lt;/b&gt; enemy and spawn it here exhausted and with 1 clue on it. Shuffle the encounter deck.&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Sentry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06255b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Spawn the set-aside Gug Sentinel enemy at this location, with 1 &lt;span class="icon-per_investigator" title="Per Investigator"&gt;&lt;/span&gt; clues on it. Test &lt;span class="icon-agility" title="Agility"&gt;&lt;/span&gt; (3). If you succeed, Gug Sentinel enters play exhausted and unengaged. Otherwise, it enters play engaged with you.&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Another Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06256b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Put the set-aside Enchanted Woods &lt;i&gt;(Stone Trapdoor)&lt;/i&gt; into play, revealed.&lt;/p&gt;&lt;p&gt;Record in your Campaign Log &lt;i&gt;the investigators found a way out of the Underworld&lt;/i&gt;.&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Strange Ghoul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06257b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;b&gt;If the investigators possess fewer than 3 &lt;span class="icon-per_investigator" title="Per Investigator"&gt;&lt;/span&gt; clues:&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;blockquote&gt;&lt;i&gt;Try as you might, you cannot make any headway with the creatures that dwell i this region.&lt;/i&gt;&lt;/blockquote&gt;&lt;/p&gt;&lt;p&gt;Flip this card back over. Come back when you have a greater understanding of this region. This card may be flipped over again when you are ready.&lt;hr&gt;&lt;b&gt;If the investigators possess at least 3 &lt;span class="icon-per_investigator" title="Per Investigator"&gt;&lt;/span&gt; clues:&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;blockquote&gt;&lt;i&gt;Having spent considerable time exploring the upper layer, you understand the ghouls' nature a bit more. They are more welcoming than their kin have been in the past, speaking to you in grunting, monosyllabic English. As you consider your options, you are approached by one of their kind who still wears human clothing. Unlike the rest, he is able to communicate with you perfectly. With an air of authority and wisdom about him, he demands to know why you have come to this place.&lt;/i&gt;&lt;/blockquote&gt;&lt;/p&gt;&lt;p&gt;The investigators must spend 3 &lt;span class="icon-per_investigator" title="Per Investigator"&gt;&lt;/span&gt; clues, as a group.&lt;/p&gt;&lt;p&gt;Advance the current act.&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scouting the Vale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06258b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Look at the top 2 &lt;span class="icon-per_investigator" title="Per Investigator"&gt;&lt;/span&gt; cards of the encounter deck. You may discard up to half of those cards. Return the rest to the top of the encounter deck, in any order.&lt;/p&gt;&lt;p&gt;For the remainder of the game, ignore the text on Crag of the Ghouls.&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Something Below</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06259b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;If there is no Dhole Tunnel at this location, search the encounter deck and discard pile for a Dhole Tunnel and attach it to this location, if able. Shuffle the encounter deck.&lt;/p&gt;&lt;p&gt;If Slithering Dhole is in play, move it to this location and add 2 clues to it. Otherwise, search the encounter deck, discard pile, and victory display for Slithering Dhole, and spawn it at this location, exhausted and with 2 clues on it.&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inhabitants of the Vale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06260b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Search the encounter deck and discard pile for a Hunting Nightgaunt and spawn it at Vale of Pnath, exhausted.&lt;/p&gt;&lt;p&gt;Each investigator at Peaks of Thok may draw 2 cards.&lt;/p&gt;&lt;p&gt;Choose any enemy in play and place 2 clues on it.&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Way Out</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06261b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;b&gt;If the investigators possess fewer than 3 &lt;span class="icon-per_investigator" title="Per Investigator"&gt;&lt;/span&gt; clues:&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;blockquote&gt;&lt;i&gt;Try as you might, you cannot find any way out of the dark, barren vale.&lt;/i&gt;&lt;/blockquote&gt;&lt;/p&gt;&lt;p&gt;Flip this card back over. Come back when you have a greater understanding of this region. This card may be flipped over again when you are ready.&lt;hr&gt;&lt;b&gt;If the investigators possess at least 3 &lt;span class="icon-per_investigator" title="Per Investigator"&gt;&lt;/span&gt; clues:&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;blockquote&gt;&lt;i&gt;You venture out into the dark vale and attempt to map out your surroundings. With the knowledge you have accumulated, you know that the source of the disturbances within the Underworld cannot be in this region. There must be another pathway - perhaps a cavern or tunnel - that leads from the vale to a place even deeper beneath the surface of the Dreamlands. As you approach the great stone wall at the far end of the vale, you pick up a foul scent, like sulfur and tar. You follow the stench until it leads you to a wide hole in the wall.&lt;/i&gt;&lt;/blockquote&gt;&lt;/p&gt;&lt;p&gt;The investigators must spend 3 &lt;span class="icon-per_investigator" title="Per Investigator"&gt;&lt;/span&gt; clues, as a group.&lt;/p&gt;&lt;p&gt;Advance the current act.&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spider-Infested Waters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06262b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Shuffle the encounter discard pile into the encounter deck and discard cards from the top until a &lt;b&gt;&lt;i&gt;Spider&lt;/i&gt;&lt;/b&gt; enemy is discarded. Spawn that enemy here with 1 &lt;span class="icon-per_investigator" title="Per Investigator"&gt;&lt;/span&gt; clues on it (if it is swarming, place those clues on the host enemy).&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Still Surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06263b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Look at the other side of another copy of Sea of Pitch.&lt;/p&gt;&lt;p&gt;Flip this card back over.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rolling Pits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06264b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Set all of the clues from each Sea of Pitch aside.&lt;/p&gt;&lt;p&gt;Discard all other tokens and attachments from each Sea of Pitch.&lt;/p&gt;&lt;p&gt;Flip this card back over and shuffle the positions of each copy of Sea of Pitch so you do not know which is which (investigators and enemies remain at their current position).&lt;/p&gt;&lt;p&gt;Distribute the previously set-aside clues among each copy of Sea of Pitch, as evenly as possible.&lt;/p&gt;&lt;p&gt;Each Sea of Pitch may be flipped over again using their veiled keyword.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Center of the Sea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06265b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;b&gt;If the investigators possess fewer than 3 &lt;span class="icon-per_investigator" title="Per Investigator"&gt;&lt;/span&gt; clues:&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;blockquote&gt;&lt;i&gt;Try as you might, you cannot find the way to the other side of this ocean of tar.&lt;/i&gt;&lt;/blockquote&gt;&lt;/p&gt;&lt;p&gt;Flip this card back over. Come back when you have a greater understanding of this region. This card may be flipped over again when you are ready.&lt;hr&gt;&lt;b&gt;If the investigators possess at least 3 &lt;span class="icon-per_investigator" title="Per Investigator"&gt;&lt;/span&gt; clues:&lt;/b&gt;&lt;/p&gt;&lt;p&gt;&lt;blockquote&gt;&lt;i&gt;You row farther out, into deeper, darker waters, but there is still no sign of any other shore. Under the surface of the black, tarry liquid, you can see a series of glittering stars, like an unknown constellation beckoning you forward. If you didn't know any better, you would think it was a reflection of the sky above, but there is no sky in this dark realm. You lean over the edge of your boat and nearly vomit from the sensation of vertigo that assaults you. It must be hundreds of miles deep, and filled with horrors beyond your imagining. And yet, you know what you must do...&lt;/i&gt;&lt;/blockquote&gt;&lt;/p&gt;&lt;p&gt;The investigators must spend 3 &lt;span class="icon-per_investigator" title="Per Investigator"&gt;&lt;/span&gt; clues, as a group.&lt;/p&gt;&lt;p&gt;Flip this card back over and advance the current act.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlach-Nacha: The Spider God</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06346a.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enemy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weaver of the Cosmos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">woc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ancient One. Spider. Elite.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Massive.  &lt;b&gt;Forced&lt;/b&gt; - When Atlach-Nacha leaves a location: If there are no investigators at that location, place 1 doom there. Otherwise, it attacks each investigator at that location.  &lt;b&gt;Forced&lt;/b&gt; - After you evade Atlach-Nacha: Instead of exhausting it, choose an investigator at your location. It cannot attack the chosen investigator this round.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlach-Nacha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/06/06346b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87005a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tindalos: Realm of Angular Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/87/87005aa.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machinations Through Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mtt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Single Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Past. Present. Future.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tindalos is connected to each [[Portal]] location, and vice versa.  [fast] If it is your turn: Move to a [[Portal]] location.  [action]: Test [combat] (2) or [agility] (2). If you succeed, rescue an abducted [[Scientist]] asset and put it into play at Tindalos, exhausted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tindalos: Maze of Infinite Depths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/87/87005ab.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Epic Multiplayer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tindalos is connected to each [[Portal]] location, and vice versa.  [fast]: Place 1 of your clues on Tindalos, or take control of 1 clue on a Tindalos location in any era.  [action]: Test [combat] (3) or [agility] (3). If you succeed, rescue an abducted [[Scientist]] asset and put it into play at Tindalos, exhausted.</t>
+    <t xml:space="preserve">&lt;b&gt;Setup&lt;/b&gt;: Set the Dimensional Beam Machine asset aside, out of play. Flip this story card over.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/87/87024b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[action] If Thomas Corrigan and Mary Zielinski are at Corrigan Industries: Put the set-aside Dimensional Beam Machine asset into play under your control &lt;i&gt;(if you are eliminated, set it aside, out of play)&lt;/i&gt;.  [action] If "teleportation research has begun" and Thomas Corrigan, Mary Zielinski, and the Dimensional Beam Machine are at the [[Future]] Miskatonic University: Test [intellect] (3). If you succeed, spend 2 [per_investigator] clues, as a group (8 [per_investigator] clues, as a group, instead if you are playing in &lt;i&gt;Epic Multiplayer Mode&lt;/i&gt;) and announce "Thomas and Mary have made a historic discovery."  [action] If "Thomas and Mary have made a historic discovery" and Thomas Corrigan and Mary Zielinski are at the [[Future]] Arkham Advertiser: Announce "Thomas and Mary have won a Nobel Prize."  &lt;b&gt;Objective&lt;/b&gt; - If all 3 abilities on this story card have been triggered, add it to the victory display &lt;i&gt;(place a resource token over each ability when it is triggered)&lt;/i&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Bitter Rivalry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/87/87033a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Setup&lt;/b&gt;: Follow the instructions for your relevant era(s), below.&lt;hr&gt;&lt;b&gt;Past&lt;/b&gt;: Set Thoman Corrigan aside, out of play; he has been abducted. Place Mary Zielinski at Arkham Gazette. Set the Edwin Bennet enemy aside, out of play.&lt;hr&gt;&lt;b&gt;Present and Future&lt;/b&gt;: Set Thomas Corrigan and Mary Zielinski aside, out of play; they have been abducted. If you are playing in &lt;i&gt;Epic Multiplayer Mode&lt;/i&gt;, set the Edwin Bennet enemy aside, out of play.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/87/87033b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[action] [action]: Ready and move Edwin Bennet to your location &lt;i&gt;(even if he is in another era)&lt;/i&gt;.  [action] If Edwin Bennet is at your location: &lt;b&gt;Fight&lt;/b&gt;/&lt;b&gt;Evade.&lt;/b&gt; Either attack or attempt to evade Edwin Bennet. If you succeed, spend X clues as a group, where X is the global number of players. Then, place 1 resource on him, as a target. (Group limit once per round.)  &lt;b&gt;Objective&lt;/b&gt; - If Edwin Bennet has 3 targets on him and he is at Tindalos, the forces of Tindalos seize him. Remove Edwin Bennet from the game and add all copies of this story card in each era to the victory display.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redeem a Former Colleague</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/87/87034a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Setup&lt;/b&gt;: Follow the instructions for your relevant era(s), below. Then, flip this story card over.&lt;hr&gt;&lt;b&gt;Past&lt;/b&gt;: Set Mary Zielinski aside, out of play; she has been abducted. Place Thomas Corrigan at Childhood Home. If you are playing in &lt;i&gt;Epic Multiplayer Mode&lt;/i&gt;, set the Edwin Bennet enemy aside, out of play.&lt;hr&gt;&lt;b&gt;Present&lt;/b&gt;: Set Thomas Corrigan and Mary Zielinsky aside, out of play: they have been abducted. Spawn the Edwin Bennet enemy at Miskatonic University.&lt;hr&gt;&lt;b&gt;Future&lt;/b&gt;: Set Thomas Corrigan and Mary Zielinski aside, out of play; they have been abducted. If you are playing in &lt;i&gt;Epic Multiplayer Mode&lt;/i&gt;, set the Edwin Bennet enemy aside, out of play.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/87/87034b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[action] [action]: Ready and move Edwin Bennet to your location &lt;i&gt;(even if he is in another era)&lt;/i&gt;.  [action] If Edwin Bennet is at your location: &lt;b&gt;Parley.&lt;/b&gt; Test [willpower] (3) or [intellect] (3). If you succeed, spend X clues, as a group where X is the global number of players. Then, place 1 resource on him, as a redemption.  &lt;b&gt;Objective&lt;/b&gt; - If Edwin Bennet has 3 or more redemption on him and he is at any Miskatonic University with Thomas Corrigan and Mary Zielinski, he is redeemed. Remove all redemption from him and flip him over. Add all copies of this story card in each era to the victory display.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uneasy Alliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/87/87035a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Setup&lt;/b&gt;: Follow the instructions for your relevant era(s), below. Then, flip this story card over.&lt;hr&gt;&lt;b&gt;Past&lt;/b&gt;: Place Thomas Corrigan at Childhood Home. Place Mary Zielinski at O'Malley's Watch Shop. Place the Edwin Bennet asset at Arkham Gazette with 12 clues on him, then remove 3 [per_investigator] clues from him.&lt;hr&gt;&lt;b&gt;Present and Future&lt;/b&gt;: Set Thomas Corrigan and Mary Zielinsky aside, out of play: they have been abducted. If you are playing in &lt;i&gt;Epic Multiplayer Mode&lt;/i&gt;, set the Edwin Bennet asset aside, out of play.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/87/87035b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[action] If Edwin Bennet is at your location and he is ready: &lt;b&gt;Parley.&lt;/b&gt; Place 1 of your clues on him. You may test [intellect] (4). If you succeed, place 1 more of your clues on him. If you fail, exhaust him.  [action]: Ready and move Edwin Bennet to your loaction &lt;i&gt;(even if he is in another era)&lt;/i&gt;.  &lt;b&gt;Forced&lt;/b&gt; - At the end of the round: Remove 1 clue from Edwin Bennet (2 clues instead if you are playing in &lt;i&gt;Epic Multiplayer Mode&lt;/i&gt;). If you cannot, place 1 doom on the current agenda. This effect can cause the current agenda to advance.  &lt;b&gt;Forced&lt;/b&gt; - When Edwin Bennet would be abducted: Remove all damage and horror from him and place 2 doom on the current agenda instead.  &lt;b&gt;Objective&lt;/b&gt; - If "Thomas and Mary have won a Nobel Prize" and there is no [[Plot]] story card in play in any era, add this story card to the victory display.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anomalies in Spacetime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/87/87038a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Setup&lt;/b&gt;: Place 1 [per_investigator] horror on each Miskatonic University location, as anomalies. If you are playing in &lt;i&gt;Epic Multiplayer Mode&lt;/i&gt;, also place 1 [per_investigator] horror on the following locations, as anomalies: Arkham Gazette, Arkham Advertiser, O'Malley's Watch Shop, and Tick-Tock Club.  Remove the following enemies from the game: Tyr'thrha, Old Sadie Sheldon, and all 3 copies of Sheldon Gang. Flip this story card over.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/87/87038b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abilities on locations with an anomaly cannot be triggered.  [action] Spend any number of clues: Test [willpower] (3) or [agility] (3). You get +3 skill value to this test for each clue spent this way. If you succeed, remove 1 anomaly from your location (2 anomalies instead if you succeed by 3 or more). Then, if you succeed by 4 or more and "Corrigan Industries has been founded," remove 1 anomaly from a location with the same title as your location, in any era.  &lt;b&gt;Objective&lt;/b&gt; - If it is agenda 2a and each location has no anomalies, add this story card to the victory display.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mob Troubles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/87/87039a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Setup&lt;/b&gt;: Set the Old Sadie Sheldon enemy and all 3 copies of the Sheldon Gang enemy aside, out of play. Remove the Tyr'thrha enemy from the game. You make a deal with Old Sadie Sheldon: each investigator playing the present era gains 2 resources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/87/87039b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[action] If "the debt has been paid," spend 1 [per_investigator] clues, as a group: Search the play area, encounter deck, or encounter discard pile for a Sheldon Gang enemy and add it to the victory display. If you searched the encounter deck, shuffle it. This action does not cause attacks of opportunity.  &lt;b&gt;Objective&lt;/b&gt; - If all 3 Sheldon Gang enemies are in the victory display, add this story card to the victory display.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unspeakable Abomination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/87/87042a.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Setup&lt;/b&gt;: Set the Tyr'thrha enemy aside, out of play. Remove the Old Sadie Sheldon enemy and all 3 copies of the Sheldon Gang enemy from the game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card_images/87/87042b.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[action] If Tyr'thrha is at your location, spend 1 clue: Test [intellect] (3). If you succeed, deal 2 damage to Tyr'thrha (3 damage instead if you succeed by 3 or more). This action does not provoke attacks of opportunity.  &lt;b&gt;Objective&lt;/b&gt; - If Tyr'thrha is defeated, add this story card to the victory display.</t>
   </si>
   <si>
     <t xml:space="preserve">89005</t>
@@ -800,24 +497,6 @@
   </si>
   <si>
     <t xml:space="preserve">- &lt;b&gt;-6&lt;/b&gt;: ...all events from each investigator's hand.  - &lt;b&gt;-7&lt;/b&gt;: ...a non-story, non-weakness asset from each investigator's play area.  - &lt;b&gt;-8&lt;/b&gt;: ...a non-weakness siganture card in any player's deck, hand, discard pile, or play area.  - [skull]: ...1 card beneath Ravenous, at random.  - [cultist]: ...each card committed to each skill test at your location &lt;i&gt;(after the test ends)&lt;/i&gt;, until the end of the next investigation phase.  - [tablet]: ...each event played by investigators at your location, until the end of the next investigation phase.  - [elder_thing]: ...the player card at your location with the most evidence, supplies, ammo, charges, or secrets on it.  - [auto_fail]: Reveal 3 more chaos tokens and resolve each of those devour effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triumph and Subjugation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card_images/90/90023b.webp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bad Blood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Agnes Baker must decide (choose one):&lt;/p&gt;&lt;p&gt;- Agnes Baker collects 1 memory from Elspeth Baudin.&lt;/p&gt;&lt;p&gt;- Agnes Baker gains 2 &lt;span class="icon-per_investigator" title="Per Investigator"&gt;&lt;/span&gt; clues from the token bank.&lt;/p&gt;&lt;p&gt;Then, flip this card over, exhausted and unengaged.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -893,7 +572,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -907,14 +586,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1041,7 +712,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AT1004"/>
+  <dimension ref="A1:AT991"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1061,7 +732,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="20.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="23.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.06"/>
@@ -1274,7 +945,7 @@
         <v>55</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>52</v>
@@ -1286,16 +957,34 @@
         <v>52</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>52</v>
+      <c r="AE2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>52</v>
@@ -1310,24 +999,24 @@
         <v>52</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>51</v>
@@ -1339,16 +1028,16 @@
         <v>53</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>52</v>
@@ -1360,10 +1049,10 @@
         <v>52</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>52</v>
@@ -1383,43 +1072,41 @@
       <c r="AS3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AT3" s="1" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>67</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>51</v>
+      <c r="E4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>53</v>
+      <c r="I4" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>51</v>
+        <v>73</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>52</v>
@@ -1433,141 +1120,192 @@
       <c r="P4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AQ4" s="2" t="s">
         <v>52</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AS4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AT4" s="1" t="s">
-        <v>70</v>
+      <c r="AT4" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>73</v>
+      <c r="A5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>51</v>
+      <c r="E5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>53</v>
+      <c r="I5" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>51</v>
+        <v>73</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="S5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AQ5" s="2" t="s">
         <v>52</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AS5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AT5" s="1" t="s">
-        <v>76</v>
+      <c r="AT5" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>52</v>
@@ -1582,17 +1320,14 @@
         <v>52</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AL6" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AP6" s="2" t="s">
         <v>52</v>
       </c>
@@ -1606,190 +1341,184 @@
         <v>52</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT7" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT8" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>52</v>
@@ -1804,66 +1533,63 @@
         <v>52</v>
       </c>
       <c r="Q9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP9" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AQ9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AS9" s="2" t="s">
         <v>52</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>52</v>
@@ -1878,17 +1604,14 @@
         <v>52</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AL10" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AP10" s="2" t="s">
         <v>52</v>
       </c>
@@ -1902,42 +1625,42 @@
         <v>52</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>52</v>
@@ -1952,19 +1675,16 @@
         <v>52</v>
       </c>
       <c r="Q11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL11" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AP11" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AQ11" s="2" t="s">
         <v>52</v>
@@ -1976,42 +1696,42 @@
         <v>52</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>52</v>
@@ -2026,17 +1746,17 @@
         <v>52</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AL12" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AP12" s="2" t="s">
         <v>52</v>
       </c>
@@ -2050,42 +1770,42 @@
         <v>52</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>52</v>
@@ -2100,19 +1820,16 @@
         <v>52</v>
       </c>
       <c r="Q13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL13" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AP13" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AQ13" s="2" t="s">
         <v>52</v>
@@ -2124,42 +1841,42 @@
         <v>52</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>52</v>
@@ -2174,17 +1891,17 @@
         <v>52</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AL14" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AP14" s="2" t="s">
         <v>52</v>
       </c>
@@ -2198,42 +1915,42 @@
         <v>52</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>52</v>
@@ -2248,19 +1965,16 @@
         <v>52</v>
       </c>
       <c r="Q15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL15" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AP15" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AQ15" s="2" t="s">
         <v>52</v>
@@ -2272,42 +1986,42 @@
         <v>52</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>52</v>
@@ -2322,17 +2036,17 @@
         <v>52</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AL16" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AP16" s="2" t="s">
         <v>52</v>
       </c>
@@ -2346,42 +2060,42 @@
         <v>52</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>52</v>
@@ -2396,19 +2110,16 @@
         <v>52</v>
       </c>
       <c r="Q17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM17" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL17" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AP17" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AQ17" s="2" t="s">
         <v>52</v>
@@ -2420,42 +2131,42 @@
         <v>52</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>52</v>
@@ -2470,17 +2181,17 @@
         <v>52</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AL18" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AP18" s="2" t="s">
         <v>52</v>
       </c>
@@ -2494,42 +2205,42 @@
         <v>52</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>156</v>
+        <v>72</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>52</v>
@@ -2544,19 +2255,16 @@
         <v>52</v>
       </c>
       <c r="Q19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL19" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AP19" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AQ19" s="2" t="s">
         <v>52</v>
@@ -2568,42 +2276,42 @@
         <v>52</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>52</v>
@@ -2618,17 +2326,17 @@
         <v>52</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AL20" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AP20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2642,42 +2350,42 @@
         <v>52</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>52</v>
@@ -2692,19 +2400,16 @@
         <v>52</v>
       </c>
       <c r="Q21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL21" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AP21" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AQ21" s="2" t="s">
         <v>52</v>
@@ -2716,42 +2421,42 @@
         <v>52</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>52</v>
@@ -2766,17 +2471,17 @@
         <v>52</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AL22" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AP22" s="2" t="s">
         <v>52</v>
       </c>
@@ -2790,42 +2495,42 @@
         <v>52</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>163</v>
+        <v>72</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>52</v>
@@ -2840,19 +2545,16 @@
         <v>52</v>
       </c>
       <c r="Q23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL23" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AP23" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AQ23" s="2" t="s">
         <v>52</v>
@@ -2864,42 +2566,36 @@
         <v>52</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>184</v>
+        <v>150</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>162</v>
+      <c r="E24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>163</v>
+        <v>56</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>52</v>
@@ -2913,18 +2609,15 @@
       <c r="P24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>57</v>
+      <c r="Q24" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="AB24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AL24" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AP24" s="2" t="s">
         <v>52</v>
       </c>
@@ -2937,43 +2630,37 @@
       <c r="AS24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AT24" s="1" t="s">
-        <v>186</v>
+      <c r="AT24" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>189</v>
+        <v>150</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>162</v>
+      <c r="E25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>163</v>
+        <v>56</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>52</v>
@@ -2987,18 +2674,15 @@
       <c r="P25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>57</v>
+      <c r="Q25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="AB25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AL25" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AP25" s="2" t="s">
         <v>52</v>
       </c>
@@ -3011,1020 +2695,48 @@
       <c r="AS25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AT25" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT26" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT27" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT28" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT29" s="1" t="s">
-        <v>211</v>
+      <c r="AT25" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS30" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT30" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="A30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>221</v>
-      </c>
+      <c r="A31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AA32" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB32" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AE32" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AF32" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AG32" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AH32" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AM32" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AP32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT32" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="A32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS33" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R34" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
-      <c r="AI34" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ34" s="4"/>
-      <c r="AK34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL34" s="4"/>
-      <c r="AM34" s="4"/>
-      <c r="AN34" s="4"/>
-      <c r="AO34" s="4"/>
-      <c r="AP34" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="AQ34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR34" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="AS34" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT34" s="4" t="s">
-        <v>246</v>
-      </c>
+      <c r="A34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="R35" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="S35" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
-      <c r="AN35" s="4"/>
-      <c r="AO35" s="4"/>
-      <c r="AP35" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="AQ35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR35" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="AS35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT35" s="4" t="s">
-        <v>250</v>
-      </c>
+      <c r="A35" s="2"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT36" s="3" t="s">
-        <v>257</v>
-      </c>
+      <c r="A36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q37" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT37" s="3" t="s">
-        <v>259</v>
-      </c>
+      <c r="A37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AP38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AT38" s="1" t="s">
-        <v>265</v>
-      </c>
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
@@ -4359,45 +3071,45 @@
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2"/>
     </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="2"/>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2"/>
-    </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2"/>
     </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="2"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="2"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="2"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="2"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2"/>
+    </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2"/>
     </row>
@@ -4757,42 +3469,55 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="2"/>
+      <c r="J298" s="2"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="2"/>
+      <c r="J299" s="2"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="2"/>
+      <c r="J300" s="2"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="2"/>
+      <c r="J301" s="2"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="2"/>
+      <c r="J302" s="2"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="2"/>
+      <c r="J303" s="2"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="2"/>
+      <c r="J304" s="2"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="2"/>
+      <c r="J305" s="2"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="2"/>
+      <c r="J306" s="2"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="2"/>
+      <c r="J307" s="2"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="2"/>
+      <c r="J308" s="2"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="2"/>
+      <c r="J309" s="2"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="2"/>
+      <c r="J310" s="2"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="2"/>
@@ -5064,55 +3789,42 @@
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="2"/>
-      <c r="J378" s="2"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="2"/>
-      <c r="J379" s="2"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="2"/>
-      <c r="J380" s="2"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="2"/>
-      <c r="J381" s="2"/>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="2"/>
-      <c r="J382" s="2"/>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="2"/>
-      <c r="J383" s="2"/>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="2"/>
-      <c r="J384" s="2"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="2"/>
-      <c r="J385" s="2"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="2"/>
-      <c r="J386" s="2"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="2"/>
-      <c r="J387" s="2"/>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="2"/>
-      <c r="J388" s="2"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="2"/>
-      <c r="J389" s="2"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="2"/>
-      <c r="J390" s="2"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="2"/>
@@ -5237,44 +3949,44 @@
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="2"/>
     </row>
-    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="2"/>
-    </row>
-    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="2"/>
-    </row>
-    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="2"/>
-    </row>
-    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="2"/>
-    </row>
-    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="2"/>
-    </row>
-    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="2"/>
-    </row>
-    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="2"/>
-    </row>
-    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="2"/>
-    </row>
-    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="2"/>
-    </row>
-    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="2"/>
-    </row>
-    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="2"/>
-    </row>
-    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="2"/>
-    </row>
-    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="2"/>
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="2"/>
+    </row>
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="2"/>
+    </row>
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="2"/>
+    </row>
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="2"/>
+    </row>
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="2"/>
+    </row>
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="2"/>
+    </row>
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="2"/>
+    </row>
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="2"/>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="2"/>
+    </row>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="2"/>
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="2"/>
+    </row>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="2"/>
+    </row>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="2"/>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="2"/>
@@ -6622,45 +5334,6 @@
     </row>
     <row r="991" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A991" s="2"/>
-    </row>
-    <row r="992" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A992" s="2"/>
-    </row>
-    <row r="993" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A993" s="2"/>
-    </row>
-    <row r="994" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A994" s="2"/>
-    </row>
-    <row r="995" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A995" s="2"/>
-    </row>
-    <row r="996" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A996" s="2"/>
-    </row>
-    <row r="997" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A997" s="2"/>
-    </row>
-    <row r="998" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A998" s="2"/>
-    </row>
-    <row r="999" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A999" s="2"/>
-    </row>
-    <row r="1000" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1000" s="2"/>
-    </row>
-    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1001" s="2"/>
-    </row>
-    <row r="1002" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1002" s="2"/>
-    </row>
-    <row r="1003" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1003" s="2"/>
-    </row>
-    <row r="1004" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1004" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
